--- a/June2019/ISWRPQAQ_stats.xlsx
+++ b/June2019/ISWRPQAQ_stats.xlsx
@@ -863,10 +863,10 @@
         <v>695</v>
       </c>
       <c r="AY4">
-        <v>0.01938924604316548</v>
+        <v>0.01938943712230217</v>
       </c>
       <c r="AZ4">
-        <v>0.0200966329689133</v>
+        <v>0.02009629216312144</v>
       </c>
       <c r="BA4">
         <v>-0.152</v>
@@ -887,10 +887,10 @@
         <v>695</v>
       </c>
       <c r="BG4">
-        <v>0.8887018129496402</v>
+        <v>0.8886878417266185</v>
       </c>
       <c r="BH4">
-        <v>1.221437102509542</v>
+        <v>1.22142921094161</v>
       </c>
       <c r="BI4">
         <v>-2.75</v>
@@ -964,10 +964,10 @@
         <v>696</v>
       </c>
       <c r="S5">
-        <v>9.226206896551718</v>
+        <v>9.226235632183901</v>
       </c>
       <c r="T5">
-        <v>0.8825050889101811</v>
+        <v>0.8824902121912818</v>
       </c>
       <c r="U5">
         <v>8</v>
@@ -1060,10 +1060,10 @@
         <v>696</v>
       </c>
       <c r="AY5">
-        <v>0.00799951336206896</v>
+        <v>0.007999442241379304</v>
       </c>
       <c r="AZ5">
-        <v>0.009404287341836556</v>
+        <v>0.009403895197147797</v>
       </c>
       <c r="BA5">
         <v>-0.00933</v>
@@ -1084,10 +1084,10 @@
         <v>696</v>
       </c>
       <c r="BG5">
-        <v>0.292032378591954</v>
+        <v>0.2920359390804598</v>
       </c>
       <c r="BH5">
-        <v>0.3000067643364197</v>
+        <v>0.3000062732298538</v>
       </c>
       <c r="BI5">
         <v>-0.195</v>
@@ -1257,10 +1257,10 @@
         <v>696</v>
       </c>
       <c r="AY6">
-        <v>0.001901508893678159</v>
+        <v>0.001901300488505745</v>
       </c>
       <c r="AZ6">
-        <v>0.01001393895343528</v>
+        <v>0.01001418181220508</v>
       </c>
       <c r="BA6">
         <v>-0.0175</v>
@@ -1269,7 +1269,7 @@
         <v>-0.00288</v>
       </c>
       <c r="BC6">
-        <v>-9.665E-05</v>
+        <v>-9.674999999999999E-05</v>
       </c>
       <c r="BD6">
         <v>0.0041525</v>
@@ -1281,10 +1281,10 @@
         <v>696</v>
       </c>
       <c r="BG6">
-        <v>-0.02154499281609195</v>
+        <v>-0.02154713362068966</v>
       </c>
       <c r="BH6">
-        <v>0.2457140244723847</v>
+        <v>0.2457242360726114</v>
       </c>
       <c r="BI6">
         <v>-1.16</v>
@@ -1293,7 +1293,7 @@
         <v>-0.13225</v>
       </c>
       <c r="BK6">
-        <v>-0.00229</v>
+        <v>-0.002295</v>
       </c>
       <c r="BL6">
         <v>0.141</v>
@@ -1334,10 +1334,10 @@
         <v>696</v>
       </c>
       <c r="K7">
-        <v>42.76091954022993</v>
+        <v>42.76120689655176</v>
       </c>
       <c r="L7">
-        <v>1.828809028461324</v>
+        <v>1.828468945645449</v>
       </c>
       <c r="M7">
         <v>40.1</v>
@@ -1454,10 +1454,10 @@
         <v>696</v>
       </c>
       <c r="AY7">
-        <v>-0.002273481063218391</v>
+        <v>-0.002273546364942529</v>
       </c>
       <c r="AZ7">
-        <v>0.01030087389918024</v>
+        <v>0.0103008702657822</v>
       </c>
       <c r="BA7">
         <v>-0.0281</v>
@@ -1478,10 +1478,10 @@
         <v>696</v>
       </c>
       <c r="BG7">
-        <v>-0.2031974439655174</v>
+        <v>-0.2032009238505748</v>
       </c>
       <c r="BH7">
-        <v>0.3659515084390904</v>
+        <v>0.3659515522057178</v>
       </c>
       <c r="BI7">
         <v>-2.16</v>
@@ -1531,10 +1531,10 @@
         <v>696</v>
       </c>
       <c r="K8">
-        <v>42.39224137931036</v>
+        <v>42.3925287356322</v>
       </c>
       <c r="L8">
-        <v>1.923245946048066</v>
+        <v>1.923247085449774</v>
       </c>
       <c r="M8">
         <v>39.6</v>
@@ -1555,10 +1555,10 @@
         <v>696</v>
       </c>
       <c r="S8">
-        <v>8.270603448275859</v>
+        <v>8.270732758620687</v>
       </c>
       <c r="T8">
-        <v>0.8152831053082374</v>
+        <v>0.8152331407658964</v>
       </c>
       <c r="U8">
         <v>7.03</v>
@@ -1627,10 +1627,10 @@
         <v>696</v>
       </c>
       <c r="AQ8">
-        <v>42.74252873563218</v>
+        <v>42.74254310344827</v>
       </c>
       <c r="AR8">
-        <v>26.62499334682729</v>
+        <v>26.6249719369922</v>
       </c>
       <c r="AS8">
         <v>1.86</v>
@@ -1651,10 +1651,10 @@
         <v>696</v>
       </c>
       <c r="AY8">
-        <v>0.0004644549137931035</v>
+        <v>0.0004643849425287362</v>
       </c>
       <c r="AZ8">
-        <v>0.008962852399131544</v>
+        <v>0.008962877838485537</v>
       </c>
       <c r="BA8">
         <v>-0.0284</v>
@@ -1675,10 +1675,10 @@
         <v>696</v>
       </c>
       <c r="BG8">
-        <v>-0.06982770977011504</v>
+        <v>-0.06982913505747135</v>
       </c>
       <c r="BH8">
-        <v>0.2538692508219702</v>
+        <v>0.2538724090755219</v>
       </c>
       <c r="BI8">
         <v>-1.45</v>
@@ -1848,10 +1848,10 @@
         <v>696</v>
       </c>
       <c r="AY9">
-        <v>0.001599164956896553</v>
+        <v>0.001599134770114945</v>
       </c>
       <c r="AZ9">
-        <v>0.008592098102105346</v>
+        <v>0.008592126921335611</v>
       </c>
       <c r="BA9">
         <v>-0.0288</v>
@@ -1872,10 +1872,10 @@
         <v>696</v>
       </c>
       <c r="BG9">
-        <v>-0.01058839109195401</v>
+        <v>-0.01058839396551722</v>
       </c>
       <c r="BH9">
-        <v>0.2137384016683918</v>
+        <v>0.2137384015155406</v>
       </c>
       <c r="BI9">
         <v>-1.08</v>
@@ -1925,10 +1925,10 @@
         <v>696</v>
       </c>
       <c r="K10">
-        <v>41.89727011494251</v>
+        <v>41.89784482758619</v>
       </c>
       <c r="L10">
-        <v>2.035266342218502</v>
+        <v>2.035316519404357</v>
       </c>
       <c r="M10">
         <v>39</v>
@@ -1949,10 +1949,10 @@
         <v>696</v>
       </c>
       <c r="S10">
-        <v>7.775818965517234</v>
+        <v>7.77660919540229</v>
       </c>
       <c r="T10">
-        <v>0.7356533172293745</v>
+        <v>0.7356647243278415</v>
       </c>
       <c r="U10">
         <v>6.62</v>
@@ -1973,10 +1973,10 @@
         <v>696</v>
       </c>
       <c r="AA10">
-        <v>41.87614942528732</v>
+        <v>41.87629310344824</v>
       </c>
       <c r="AB10">
-        <v>2.037795423420101</v>
+        <v>2.037673534546499</v>
       </c>
       <c r="AC10">
         <v>39</v>
@@ -1997,10 +1997,10 @@
         <v>696</v>
       </c>
       <c r="AI10">
-        <v>156.5113505747126</v>
+        <v>156.514224137931</v>
       </c>
       <c r="AJ10">
-        <v>59.91493106483773</v>
+        <v>59.91577096501744</v>
       </c>
       <c r="AK10">
         <v>95</v>
@@ -2021,10 +2021,10 @@
         <v>696</v>
       </c>
       <c r="AQ10">
-        <v>41.14145114942529</v>
+        <v>41.14204022988506</v>
       </c>
       <c r="AR10">
-        <v>25.21009168248575</v>
+        <v>25.21042994456355</v>
       </c>
       <c r="AS10">
         <v>1.79</v>
@@ -2045,10 +2045,10 @@
         <v>696</v>
       </c>
       <c r="AY10">
-        <v>0.001810344597701148</v>
+        <v>0.001810086609195401</v>
       </c>
       <c r="AZ10">
-        <v>0.008417151312317938</v>
+        <v>0.008417236099090755</v>
       </c>
       <c r="BA10">
         <v>-0.03</v>
@@ -2057,7 +2057,7 @@
         <v>-0.00235</v>
       </c>
       <c r="BC10">
-        <v>0.0001645</v>
+        <v>0.000164</v>
       </c>
       <c r="BD10">
         <v>0.003895</v>
@@ -2069,10 +2069,10 @@
         <v>696</v>
       </c>
       <c r="BG10">
-        <v>0.003676752873563226</v>
+        <v>0.003664573275862071</v>
       </c>
       <c r="BH10">
-        <v>0.2056530541033951</v>
+        <v>0.2056570966844417</v>
       </c>
       <c r="BI10">
         <v>-0.975</v>
@@ -2081,7 +2081,7 @@
         <v>-0.08885</v>
       </c>
       <c r="BK10">
-        <v>0.006160000000000001</v>
+        <v>0.006155</v>
       </c>
       <c r="BL10">
         <v>0.129</v>
@@ -2122,10 +2122,10 @@
         <v>696</v>
       </c>
       <c r="K11">
-        <v>41.46997126436779</v>
+        <v>41.46982758620687</v>
       </c>
       <c r="L11">
-        <v>2.111279198800619</v>
+        <v>2.111266924807159</v>
       </c>
       <c r="M11">
         <v>38.4</v>
@@ -2146,10 +2146,10 @@
         <v>696</v>
       </c>
       <c r="S11">
-        <v>7.348362068965527</v>
+        <v>7.348333333333343</v>
       </c>
       <c r="T11">
-        <v>0.7048654473963573</v>
+        <v>0.7048737492615833</v>
       </c>
       <c r="U11">
         <v>5.9</v>
@@ -2194,10 +2194,10 @@
         <v>696</v>
       </c>
       <c r="AI11">
-        <v>151.8212643678161</v>
+        <v>151.8198275862069</v>
       </c>
       <c r="AJ11">
-        <v>56.2222399642749</v>
+        <v>56.22283678440053</v>
       </c>
       <c r="AK11">
         <v>85.90000000000001</v>
@@ -2218,10 +2218,10 @@
         <v>696</v>
       </c>
       <c r="AQ11">
-        <v>39.89589080459766</v>
+        <v>39.89574712643675</v>
       </c>
       <c r="AR11">
-        <v>24.21383162746084</v>
+        <v>24.21395133886659</v>
       </c>
       <c r="AS11">
         <v>1.72</v>
@@ -2242,10 +2242,10 @@
         <v>696</v>
       </c>
       <c r="AY11">
-        <v>0.004659719827586208</v>
+        <v>0.004660000000000003</v>
       </c>
       <c r="AZ11">
-        <v>0.01813978689373629</v>
+        <v>0.01813926191426334</v>
       </c>
       <c r="BA11">
         <v>-0.0912</v>
@@ -2254,7 +2254,7 @@
         <v>0.0010625</v>
       </c>
       <c r="BC11">
-        <v>0.006925000000000001</v>
+        <v>0.00692</v>
       </c>
       <c r="BD11">
         <v>0.0132</v>
@@ -2266,10 +2266,10 @@
         <v>696</v>
       </c>
       <c r="BG11">
-        <v>0.08954841954022992</v>
+        <v>0.08954567528735637</v>
       </c>
       <c r="BH11">
-        <v>0.7463811377668849</v>
+        <v>0.7463715859769774</v>
       </c>
       <c r="BI11">
         <v>-4.9</v>
@@ -2343,10 +2343,10 @@
         <v>696</v>
       </c>
       <c r="S12">
-        <v>7.443735632183902</v>
+        <v>7.443908045977005</v>
       </c>
       <c r="T12">
-        <v>0.6642794412385964</v>
+        <v>0.6642606861452743</v>
       </c>
       <c r="U12">
         <v>6.42</v>
@@ -2391,10 +2391,10 @@
         <v>696</v>
       </c>
       <c r="AI12">
-        <v>152.5176724137931</v>
+        <v>152.5191091954023</v>
       </c>
       <c r="AJ12">
-        <v>56.33310171743535</v>
+        <v>56.33409736917392</v>
       </c>
       <c r="AK12">
         <v>93.2</v>
@@ -2439,10 +2439,10 @@
         <v>696</v>
       </c>
       <c r="AY12">
-        <v>0.006589184339080458</v>
+        <v>0.006589062068965516</v>
       </c>
       <c r="AZ12">
-        <v>0.008245297314553326</v>
+        <v>0.008245335411343313</v>
       </c>
       <c r="BA12">
         <v>-0.0224</v>
@@ -2463,10 +2463,10 @@
         <v>696</v>
       </c>
       <c r="BG12">
-        <v>0.2081344123563215</v>
+        <v>0.2081312097701147</v>
       </c>
       <c r="BH12">
-        <v>0.206543824550392</v>
+        <v>0.2065404136158218</v>
       </c>
       <c r="BI12">
         <v>-0.0873</v>
@@ -2636,10 +2636,10 @@
         <v>696</v>
       </c>
       <c r="AY13">
-        <v>0.00664145036882184</v>
+        <v>0.00664144925086207</v>
       </c>
       <c r="AZ13">
-        <v>0.008472727131538536</v>
+        <v>0.008472727973021276</v>
       </c>
       <c r="BA13">
         <v>-0.0175</v>
@@ -2660,10 +2660,10 @@
         <v>696</v>
       </c>
       <c r="BG13">
-        <v>0.1989766894971265</v>
+        <v>0.19897699875</v>
       </c>
       <c r="BH13">
-        <v>0.1953365721585415</v>
+        <v>0.1953362413522465</v>
       </c>
       <c r="BI13">
         <v>-0.0871</v>
@@ -2833,10 +2833,10 @@
         <v>696</v>
       </c>
       <c r="AY14">
-        <v>0.007000804410919548</v>
+        <v>0.007000804425287364</v>
       </c>
       <c r="AZ14">
-        <v>0.008759349915611529</v>
+        <v>0.008759349904106402</v>
       </c>
       <c r="BA14">
         <v>-0.0126</v>
@@ -2857,10 +2857,10 @@
         <v>696</v>
       </c>
       <c r="BG14">
-        <v>0.2059100984195402</v>
+        <v>0.2059100985632184</v>
       </c>
       <c r="BH14">
-        <v>0.1968734534939342</v>
+        <v>0.1968734533434924</v>
       </c>
       <c r="BI14">
         <v>-0.0819</v>
@@ -3030,10 +3030,10 @@
         <v>696</v>
       </c>
       <c r="AY15">
-        <v>0.00736812831896552</v>
+        <v>0.00736812817528736</v>
       </c>
       <c r="AZ15">
-        <v>0.009040787577481942</v>
+        <v>0.009040787693233595</v>
       </c>
       <c r="BA15">
         <v>-0.00792</v>
@@ -3227,10 +3227,10 @@
         <v>696</v>
       </c>
       <c r="AY16">
-        <v>0.007716428082614957</v>
+        <v>0.007716428052298864</v>
       </c>
       <c r="AZ16">
-        <v>0.009317055432832446</v>
+        <v>0.009317055457956755</v>
       </c>
       <c r="BA16">
         <v>-0.00346</v>
@@ -3251,10 +3251,10 @@
         <v>696</v>
       </c>
       <c r="BG16">
-        <v>0.2224013725301724</v>
+        <v>0.222401372525862</v>
       </c>
       <c r="BH16">
-        <v>0.2009398351178453</v>
+        <v>0.200939835122623</v>
       </c>
       <c r="BI16">
         <v>-0.068</v>
@@ -3424,10 +3424,10 @@
         <v>696</v>
       </c>
       <c r="AY17">
-        <v>0.008040153448275855</v>
+        <v>0.008040139224137925</v>
       </c>
       <c r="AZ17">
-        <v>0.009600920476648149</v>
+        <v>0.009600928142671708</v>
       </c>
       <c r="BA17">
         <v>-0.00162</v>
@@ -3448,10 +3448,10 @@
         <v>696</v>
       </c>
       <c r="BG17">
-        <v>0.2295969685344827</v>
+        <v>0.2295969682471264</v>
       </c>
       <c r="BH17">
-        <v>0.2022893629767636</v>
+        <v>0.2022893633032789</v>
       </c>
       <c r="BI17">
         <v>-0.0614</v>
@@ -3645,10 +3645,10 @@
         <v>696</v>
       </c>
       <c r="BG18">
-        <v>0.236834808908046</v>
+        <v>0.2368376810344828</v>
       </c>
       <c r="BH18">
-        <v>0.2053348414217269</v>
+        <v>0.2053389446189234</v>
       </c>
       <c r="BI18">
         <v>-0.0551</v>
@@ -3818,10 +3818,10 @@
         <v>696</v>
       </c>
       <c r="AY19">
-        <v>0.008649132931034481</v>
+        <v>0.008649132945402295</v>
       </c>
       <c r="AZ19">
-        <v>0.01017665947578892</v>
+        <v>0.01017665946356915</v>
       </c>
       <c r="BA19">
         <v>-0.00129</v>
@@ -3842,10 +3842,10 @@
         <v>696</v>
       </c>
       <c r="BG19">
-        <v>0.2437085603448273</v>
+        <v>0.2437085632183905</v>
       </c>
       <c r="BH19">
-        <v>0.2081200047875791</v>
+        <v>0.2081200014241272</v>
       </c>
       <c r="BI19">
         <v>-0.0491</v>
@@ -3895,10 +3895,10 @@
         <v>696</v>
       </c>
       <c r="K20">
-        <v>41.56149425287352</v>
+        <v>41.56192528735629</v>
       </c>
       <c r="L20">
-        <v>2.151214495851393</v>
+        <v>2.151185391846424</v>
       </c>
       <c r="M20">
         <v>38.6</v>
@@ -3919,19 +3919,19 @@
         <v>696</v>
       </c>
       <c r="S20">
-        <v>7.441163793103451</v>
+        <v>7.441551724137928</v>
       </c>
       <c r="T20">
-        <v>0.6639423973103141</v>
+        <v>0.6639492961246073</v>
       </c>
       <c r="U20">
-        <v>6.41</v>
+        <v>6.4</v>
       </c>
       <c r="V20">
         <v>6.9</v>
       </c>
       <c r="W20">
-        <v>7.285</v>
+        <v>7.29</v>
       </c>
       <c r="X20">
         <v>8.0025</v>
@@ -3967,10 +3967,10 @@
         <v>696</v>
       </c>
       <c r="AI20">
-        <v>152.4235632183908</v>
+        <v>152.4310344827586</v>
       </c>
       <c r="AJ20">
-        <v>56.29495362541913</v>
+        <v>56.29502309621272</v>
       </c>
       <c r="AK20">
         <v>93.3</v>
@@ -3991,10 +3991,10 @@
         <v>696</v>
       </c>
       <c r="AQ20">
-        <v>40.04839080459767</v>
+        <v>40.04893678160916</v>
       </c>
       <c r="AR20">
-        <v>24.2477517580586</v>
+        <v>24.24793486758739</v>
       </c>
       <c r="AS20">
         <v>1.75</v>
@@ -4015,10 +4015,10 @@
         <v>696</v>
       </c>
       <c r="AY20">
-        <v>0.008916989870689658</v>
+        <v>0.008917298534482762</v>
       </c>
       <c r="AZ20">
-        <v>0.0104449444676245</v>
+        <v>0.0104449266323718</v>
       </c>
       <c r="BA20">
         <v>-0.00114</v>
@@ -4039,16 +4039,16 @@
         <v>696</v>
       </c>
       <c r="BG20">
-        <v>0.249475688218391</v>
+        <v>0.2494686163793105</v>
       </c>
       <c r="BH20">
-        <v>0.2083072584199169</v>
+        <v>0.2082989922424656</v>
       </c>
       <c r="BI20">
         <v>-0.0433</v>
       </c>
       <c r="BJ20">
-        <v>0.063625</v>
+        <v>0.06369999999999999</v>
       </c>
       <c r="BK20">
         <v>0.2315</v>
@@ -4092,10 +4092,10 @@
         <v>696</v>
       </c>
       <c r="K21">
-        <v>41.55143678160915</v>
+        <v>41.5524425287356</v>
       </c>
       <c r="L21">
-        <v>2.150555746550013</v>
+        <v>2.15092278931931</v>
       </c>
       <c r="M21">
         <v>38.6</v>
@@ -4116,10 +4116,10 @@
         <v>696</v>
       </c>
       <c r="S21">
-        <v>7.431853448275859</v>
+        <v>7.432729885057462</v>
       </c>
       <c r="T21">
-        <v>0.6639135215547275</v>
+        <v>0.6640473386289044</v>
       </c>
       <c r="U21">
         <v>6.4</v>
@@ -4128,7 +4128,7 @@
         <v>6.89</v>
       </c>
       <c r="W21">
-        <v>7.28</v>
+        <v>7.275</v>
       </c>
       <c r="X21">
         <v>8</v>
@@ -4164,10 +4164,10 @@
         <v>696</v>
       </c>
       <c r="AI21">
-        <v>152.3681034482759</v>
+        <v>152.3738505747127</v>
       </c>
       <c r="AJ21">
-        <v>56.25715560429347</v>
+        <v>56.25640151046942</v>
       </c>
       <c r="AK21">
         <v>93.2</v>
@@ -4188,10 +4188,10 @@
         <v>696</v>
       </c>
       <c r="AQ21">
-        <v>40.03587643678159</v>
+        <v>40.03629310344827</v>
       </c>
       <c r="AR21">
-        <v>24.24157797726615</v>
+        <v>24.24208704350264</v>
       </c>
       <c r="AS21">
         <v>1.75</v>
@@ -4200,7 +4200,7 @@
         <v>20.3</v>
       </c>
       <c r="AU21">
-        <v>40.09999999999999</v>
+        <v>40.15</v>
       </c>
       <c r="AV21">
         <v>51.725</v>
@@ -4212,10 +4212,10 @@
         <v>696</v>
       </c>
       <c r="AY21">
-        <v>0.009149625474137932</v>
+        <v>0.009150359410919547</v>
       </c>
       <c r="AZ21">
-        <v>0.0106832906853651</v>
+        <v>0.01068485695143513</v>
       </c>
       <c r="BA21">
         <v>-0.0009940000000000001</v>
@@ -4236,10 +4236,10 @@
         <v>696</v>
       </c>
       <c r="BG21">
-        <v>0.2541005359195402</v>
+        <v>0.2541285359195405</v>
       </c>
       <c r="BH21">
-        <v>0.2060203837084924</v>
+        <v>0.2060532787387491</v>
       </c>
       <c r="BI21">
         <v>-0.0377</v>
@@ -4248,7 +4248,7 @@
         <v>0.06675</v>
       </c>
       <c r="BK21">
-        <v>0.239</v>
+        <v>0.2385</v>
       </c>
       <c r="BL21">
         <v>0.413</v>
@@ -4289,10 +4289,10 @@
         <v>696</v>
       </c>
       <c r="K22">
-        <v>41.55143678160918</v>
+        <v>41.54497126436777</v>
       </c>
       <c r="L22">
-        <v>2.151251455496233</v>
+        <v>2.150724288048528</v>
       </c>
       <c r="M22">
         <v>38.6</v>
@@ -4313,10 +4313,10 @@
         <v>696</v>
       </c>
       <c r="S22">
-        <v>7.430560344827589</v>
+        <v>7.426020114942534</v>
       </c>
       <c r="T22">
-        <v>0.6636613957070454</v>
+        <v>0.6638179039968332</v>
       </c>
       <c r="U22">
         <v>6.39</v>
@@ -4325,7 +4325,7 @@
         <v>6.89</v>
       </c>
       <c r="W22">
-        <v>7.28</v>
+        <v>7.27</v>
       </c>
       <c r="X22">
         <v>7.99</v>
@@ -4361,10 +4361,10 @@
         <v>696</v>
       </c>
       <c r="AI22">
-        <v>152.3459770114943</v>
+        <v>152.3397988505747</v>
       </c>
       <c r="AJ22">
-        <v>56.23364528011783</v>
+        <v>56.22631258336317</v>
       </c>
       <c r="AK22">
         <v>93.2</v>
@@ -4385,10 +4385,10 @@
         <v>696</v>
       </c>
       <c r="AQ22">
-        <v>40.03159482758618</v>
+        <v>40.02656609195399</v>
       </c>
       <c r="AR22">
-        <v>24.23855444587254</v>
+        <v>24.23658355239097</v>
       </c>
       <c r="AS22">
         <v>1.75</v>
@@ -4409,16 +4409,16 @@
         <v>696</v>
       </c>
       <c r="AY22">
-        <v>0.009362366810344819</v>
+        <v>0.009363484066091955</v>
       </c>
       <c r="AZ22">
-        <v>0.01092047523983686</v>
+        <v>0.01092103338465083</v>
       </c>
       <c r="BA22">
         <v>-0.000853</v>
       </c>
       <c r="BB22">
-        <v>0.002145</v>
+        <v>0.0021475</v>
       </c>
       <c r="BC22">
         <v>0.006215</v>
@@ -4433,10 +4433,10 @@
         <v>696</v>
       </c>
       <c r="BG22">
-        <v>0.2581651048850575</v>
+        <v>0.258176216954023</v>
       </c>
       <c r="BH22">
-        <v>0.2042093068098871</v>
+        <v>0.2042222264721816</v>
       </c>
       <c r="BI22">
         <v>-0.0324</v>
@@ -4486,10 +4486,10 @@
         <v>696</v>
       </c>
       <c r="K23">
-        <v>41.54626436781604</v>
+        <v>41.54712643678155</v>
       </c>
       <c r="L23">
-        <v>2.151830503125597</v>
+        <v>2.152520440957284</v>
       </c>
       <c r="M23">
         <v>38.6</v>
@@ -4504,19 +4504,19 @@
         <v>43.325</v>
       </c>
       <c r="Q23">
-        <v>45.1</v>
+        <v>45.2</v>
       </c>
       <c r="R23">
         <v>696</v>
       </c>
       <c r="S23">
-        <v>7.426867816091952</v>
+        <v>7.427212643678164</v>
       </c>
       <c r="T23">
-        <v>0.6634843406381635</v>
+        <v>0.6634381697470511</v>
       </c>
       <c r="U23">
-        <v>6.4</v>
+        <v>6.39</v>
       </c>
       <c r="V23">
         <v>6.89</v>
@@ -4558,10 +4558,10 @@
         <v>696</v>
       </c>
       <c r="AI23">
-        <v>152.3239942528736</v>
+        <v>152.3283045977012</v>
       </c>
       <c r="AJ23">
-        <v>56.21709447505477</v>
+        <v>56.220406090728</v>
       </c>
       <c r="AK23">
         <v>93.2</v>
@@ -4582,10 +4582,10 @@
         <v>696</v>
       </c>
       <c r="AQ23">
-        <v>40.02360632183903</v>
+        <v>40.02501436781604</v>
       </c>
       <c r="AR23">
-        <v>24.2330415329929</v>
+        <v>24.23402996501236</v>
       </c>
       <c r="AS23">
         <v>1.75</v>
@@ -4606,13 +4606,13 @@
         <v>696</v>
       </c>
       <c r="AY23">
-        <v>0.009587504942528743</v>
+        <v>0.009587756853448285</v>
       </c>
       <c r="AZ23">
-        <v>0.01116879577476904</v>
+        <v>0.01116934165409613</v>
       </c>
       <c r="BA23">
-        <v>-0.000722</v>
+        <v>-0.000721</v>
       </c>
       <c r="BB23">
         <v>0.0022175</v>
@@ -4630,10 +4630,10 @@
         <v>696</v>
       </c>
       <c r="BG23">
-        <v>0.2631722222701152</v>
+        <v>0.2632069614942528</v>
       </c>
       <c r="BH23">
-        <v>0.2061508634078894</v>
+        <v>0.2061786625961659</v>
       </c>
       <c r="BI23">
         <v>-0.0274</v>
@@ -4683,10 +4683,10 @@
         <v>696</v>
       </c>
       <c r="K24">
-        <v>41.54612068965513</v>
+        <v>41.54109195402295</v>
       </c>
       <c r="L24">
-        <v>2.153781859010895</v>
+        <v>2.153038599003387</v>
       </c>
       <c r="M24">
         <v>38.5</v>
@@ -4707,22 +4707,22 @@
         <v>696</v>
       </c>
       <c r="S24">
-        <v>7.427011494252879</v>
+        <v>7.423031609195405</v>
       </c>
       <c r="T24">
-        <v>0.6629706243783023</v>
+        <v>0.663050182356631</v>
       </c>
       <c r="U24">
         <v>6.39</v>
       </c>
       <c r="V24">
-        <v>6.89</v>
+        <v>6.887499999999999</v>
       </c>
       <c r="W24">
-        <v>7.28</v>
+        <v>7.27</v>
       </c>
       <c r="X24">
-        <v>7.99</v>
+        <v>7.9825</v>
       </c>
       <c r="Y24">
         <v>9.02</v>
@@ -4755,10 +4755,10 @@
         <v>696</v>
       </c>
       <c r="AI24">
-        <v>152.3165229885057</v>
+        <v>152.3058908045977</v>
       </c>
       <c r="AJ24">
-        <v>56.21184186136364</v>
+        <v>56.21340306966788</v>
       </c>
       <c r="AK24">
         <v>93.2</v>
@@ -4779,10 +4779,10 @@
         <v>696</v>
       </c>
       <c r="AQ24">
-        <v>40.02245689655168</v>
+        <v>40.01820402298846</v>
       </c>
       <c r="AR24">
-        <v>24.23125822671901</v>
+        <v>24.23104470635122</v>
       </c>
       <c r="AS24">
         <v>1.75</v>
@@ -4803,10 +4803,10 @@
         <v>696</v>
       </c>
       <c r="AY24">
-        <v>0.009824496695402295</v>
+        <v>0.009823784051724127</v>
       </c>
       <c r="AZ24">
-        <v>0.01142483459959821</v>
+        <v>0.01142402708602507</v>
       </c>
       <c r="BA24">
         <v>-0.000598</v>
@@ -4827,10 +4827,10 @@
         <v>696</v>
       </c>
       <c r="BG24">
-        <v>0.2689873994252872</v>
+        <v>0.2689667945402299</v>
       </c>
       <c r="BH24">
-        <v>0.2101937381918962</v>
+        <v>0.210172194271829</v>
       </c>
       <c r="BI24">
         <v>-0.0227</v>
@@ -4845,7 +4845,7 @@
         <v>0.434</v>
       </c>
       <c r="BM24">
-        <v>0.907</v>
+        <v>0.906</v>
       </c>
     </row>
     <row r="25" spans="1:65">
@@ -4880,10 +4880,10 @@
         <v>696</v>
       </c>
       <c r="K25">
-        <v>41.54252873563215</v>
+        <v>41.54554597701146</v>
       </c>
       <c r="L25">
-        <v>2.153859226485892</v>
+        <v>2.154221618268853</v>
       </c>
       <c r="M25">
         <v>38.5</v>
@@ -4898,22 +4898,22 @@
         <v>43.325</v>
       </c>
       <c r="Q25">
-        <v>45.1</v>
+        <v>45.2</v>
       </c>
       <c r="R25">
         <v>696</v>
       </c>
       <c r="S25">
-        <v>7.423635057471266</v>
+        <v>7.425732758620702</v>
       </c>
       <c r="T25">
-        <v>0.6623827745394769</v>
+        <v>0.6622760257133585</v>
       </c>
       <c r="U25">
         <v>6.4</v>
       </c>
       <c r="V25">
-        <v>6.887499999999999</v>
+        <v>6.89</v>
       </c>
       <c r="W25">
         <v>7.27</v>
@@ -4952,10 +4952,10 @@
         <v>696</v>
       </c>
       <c r="AI25">
-        <v>152.2896551724138</v>
+        <v>152.2971264367816</v>
       </c>
       <c r="AJ25">
-        <v>56.18285979333177</v>
+        <v>56.19212206047042</v>
       </c>
       <c r="AK25">
         <v>93.2</v>
@@ -4976,10 +4976,10 @@
         <v>696</v>
       </c>
       <c r="AQ25">
-        <v>40.01590517241374</v>
+        <v>40.01925287356318</v>
       </c>
       <c r="AR25">
-        <v>24.2268359448548</v>
+        <v>24.22868683845287</v>
       </c>
       <c r="AS25">
         <v>1.75</v>
@@ -5000,10 +5000,10 @@
         <v>696</v>
       </c>
       <c r="AY25">
-        <v>0.01005314655172413</v>
+        <v>0.0100525198275862</v>
       </c>
       <c r="AZ25">
-        <v>0.01167947985112941</v>
+        <v>0.01167732174855068</v>
       </c>
       <c r="BA25">
         <v>-0.000476</v>
@@ -5024,16 +5024,16 @@
         <v>696</v>
       </c>
       <c r="BG25">
-        <v>0.2745017859195401</v>
+        <v>0.2744952931034482</v>
       </c>
       <c r="BH25">
-        <v>0.2140217482566241</v>
+        <v>0.214016854386954</v>
       </c>
       <c r="BI25">
-        <v>-0.0181</v>
+        <v>-0.018</v>
       </c>
       <c r="BJ25">
-        <v>0.0771</v>
+        <v>0.077</v>
       </c>
       <c r="BK25">
         <v>0.259</v>
@@ -5077,10 +5077,10 @@
         <v>696</v>
       </c>
       <c r="K26">
-        <v>41.54382183908042</v>
+        <v>41.53721264367814</v>
       </c>
       <c r="L26">
-        <v>2.155285767464731</v>
+        <v>2.152551169197275</v>
       </c>
       <c r="M26">
         <v>38.5</v>
@@ -5101,13 +5101,13 @@
         <v>696</v>
       </c>
       <c r="S26">
-        <v>7.424525862068965</v>
+        <v>7.419755747126429</v>
       </c>
       <c r="T26">
-        <v>0.662135246171262</v>
+        <v>0.6621061429795373</v>
       </c>
       <c r="U26">
-        <v>6.4</v>
+        <v>6.39</v>
       </c>
       <c r="V26">
         <v>6.88</v>
@@ -5116,10 +5116,10 @@
         <v>7.27</v>
       </c>
       <c r="X26">
-        <v>7.99</v>
+        <v>7.98</v>
       </c>
       <c r="Y26">
-        <v>9.02</v>
+        <v>9.01</v>
       </c>
       <c r="Z26">
         <v>696</v>
@@ -5149,10 +5149,10 @@
         <v>696</v>
       </c>
       <c r="AI26">
-        <v>152.2823275862069</v>
+        <v>152.2659482758621</v>
       </c>
       <c r="AJ26">
-        <v>56.1664795785138</v>
+        <v>56.16620508995955</v>
       </c>
       <c r="AK26">
         <v>93.2</v>
@@ -5173,10 +5173,10 @@
         <v>696</v>
       </c>
       <c r="AQ26">
-        <v>40.01350574712641</v>
+        <v>40.00558908045974</v>
       </c>
       <c r="AR26">
-        <v>24.22198423057356</v>
+        <v>24.21914963125498</v>
       </c>
       <c r="AS26">
         <v>1.75</v>
@@ -5188,7 +5188,7 @@
         <v>40.09999999999999</v>
       </c>
       <c r="AV26">
-        <v>51.725</v>
+        <v>51.7</v>
       </c>
       <c r="AW26">
         <v>144</v>
@@ -5197,10 +5197,10 @@
         <v>696</v>
       </c>
       <c r="AY26">
-        <v>0.01027083620689654</v>
+        <v>0.01026914695402298</v>
       </c>
       <c r="AZ26">
-        <v>0.01192393077471122</v>
+        <v>0.01192153824445184</v>
       </c>
       <c r="BA26">
         <v>-0.000358</v>
@@ -5221,10 +5221,10 @@
         <v>696</v>
       </c>
       <c r="BG26">
-        <v>0.2799593376436783</v>
+        <v>0.2799292255747126</v>
       </c>
       <c r="BH26">
-        <v>0.2180690447679941</v>
+        <v>0.2180459272165259</v>
       </c>
       <c r="BI26">
         <v>-0.0136</v>
@@ -5274,10 +5274,10 @@
         <v>696</v>
       </c>
       <c r="K27">
-        <v>41.5415229885057</v>
+        <v>41.54252873563214</v>
       </c>
       <c r="L27">
-        <v>2.156098923810073</v>
+        <v>2.156002545821863</v>
       </c>
       <c r="M27">
         <v>38.5</v>
@@ -5298,10 +5298,10 @@
         <v>696</v>
       </c>
       <c r="S27">
-        <v>7.422097701149421</v>
+        <v>7.422341954022982</v>
       </c>
       <c r="T27">
-        <v>0.6613434521213408</v>
+        <v>0.6613644959991895</v>
       </c>
       <c r="U27">
         <v>6.4</v>
@@ -5346,10 +5346,10 @@
         <v>696</v>
       </c>
       <c r="AI27">
-        <v>152.2548850574713</v>
+        <v>152.2563218390805</v>
       </c>
       <c r="AJ27">
-        <v>56.16280962287207</v>
+        <v>56.1624828329594</v>
       </c>
       <c r="AK27">
         <v>93.2</v>
@@ -5370,10 +5370,10 @@
         <v>696</v>
       </c>
       <c r="AQ27">
-        <v>40.00385057471263</v>
+        <v>40.00488505747125</v>
       </c>
       <c r="AR27">
-        <v>24.21540988294895</v>
+        <v>24.21581349053447</v>
       </c>
       <c r="AS27">
         <v>1.75</v>
@@ -5394,10 +5394,10 @@
         <v>696</v>
       </c>
       <c r="AY27">
-        <v>0.01047792356321839</v>
+        <v>0.01047791293103448</v>
       </c>
       <c r="AZ27">
-        <v>0.01216071655239775</v>
+        <v>0.01216073184768439</v>
       </c>
       <c r="BA27">
         <v>-0.000247</v>
@@ -5406,7 +5406,7 @@
         <v>0.0024775</v>
       </c>
       <c r="BC27">
-        <v>0.006735</v>
+        <v>0.006739999999999999</v>
       </c>
       <c r="BD27">
         <v>0.012175</v>
@@ -5418,10 +5418,10 @@
         <v>696</v>
       </c>
       <c r="BG27">
-        <v>0.2851680215517241</v>
+        <v>0.2851668204022988</v>
       </c>
       <c r="BH27">
-        <v>0.2218340117285592</v>
+        <v>0.2218344220171009</v>
       </c>
       <c r="BI27">
         <v>-0.009350000000000001</v>
@@ -5471,10 +5471,10 @@
         <v>696</v>
       </c>
       <c r="K28">
-        <v>41.54051724137927</v>
+        <v>41.54195402298846</v>
       </c>
       <c r="L28">
-        <v>2.157308946430667</v>
+        <v>2.157181395243291</v>
       </c>
       <c r="M28">
         <v>38.5</v>
@@ -5495,10 +5495,10 @@
         <v>696</v>
       </c>
       <c r="S28">
-        <v>7.421422413793095</v>
+        <v>7.421982758620683</v>
       </c>
       <c r="T28">
-        <v>0.6609595072549543</v>
+        <v>0.6610073670320574</v>
       </c>
       <c r="U28">
         <v>6.4</v>
@@ -5507,7 +5507,7 @@
         <v>6.887499999999999</v>
       </c>
       <c r="W28">
-        <v>7.27</v>
+        <v>7.275</v>
       </c>
       <c r="X28">
         <v>7.98</v>
@@ -5543,10 +5543,10 @@
         <v>696</v>
       </c>
       <c r="AI28">
-        <v>152.2475574712644</v>
+        <v>152.2491379310345</v>
       </c>
       <c r="AJ28">
-        <v>56.16208142251246</v>
+        <v>56.16140075271952</v>
       </c>
       <c r="AK28">
         <v>93.2</v>
@@ -5567,10 +5567,10 @@
         <v>696</v>
       </c>
       <c r="AQ28">
-        <v>40.00132183908045</v>
+        <v>40.00179597701149</v>
       </c>
       <c r="AR28">
-        <v>24.21465330144581</v>
+        <v>24.21458880242538</v>
       </c>
       <c r="AS28">
         <v>1.75</v>
@@ -5591,10 +5591,10 @@
         <v>696</v>
       </c>
       <c r="AY28">
-        <v>0.01066909120689655</v>
+        <v>0.01066923650862068</v>
       </c>
       <c r="AZ28">
-        <v>0.01238698955307268</v>
+        <v>0.01238712616063664</v>
       </c>
       <c r="BA28">
         <v>-0.000139</v>
@@ -5615,13 +5615,13 @@
         <v>696</v>
       </c>
       <c r="BG28">
-        <v>0.2898937715517238</v>
+        <v>0.2898952988505745</v>
       </c>
       <c r="BH28">
-        <v>0.2247753247102655</v>
+        <v>0.2247763710143604</v>
       </c>
       <c r="BI28">
-        <v>-0.00526</v>
+        <v>-0.00527</v>
       </c>
       <c r="BJ28">
         <v>0.083175</v>
@@ -5668,10 +5668,10 @@
         <v>696</v>
       </c>
       <c r="K29">
-        <v>41.53936781609192</v>
+        <v>41.54022988505744</v>
       </c>
       <c r="L29">
-        <v>2.156970071080781</v>
+        <v>2.157727809431674</v>
       </c>
       <c r="M29">
         <v>38.5</v>
@@ -5692,10 +5692,10 @@
         <v>696</v>
       </c>
       <c r="S29">
-        <v>7.419640804597695</v>
+        <v>7.420172413793095</v>
       </c>
       <c r="T29">
-        <v>0.6605214968276487</v>
+        <v>0.6606617342220183</v>
       </c>
       <c r="U29">
         <v>6.4</v>
@@ -5710,7 +5710,7 @@
         <v>7.98</v>
       </c>
       <c r="Y29">
-        <v>9</v>
+        <v>9.01</v>
       </c>
       <c r="Z29">
         <v>696</v>
@@ -5740,10 +5740,10 @@
         <v>696</v>
       </c>
       <c r="AI29">
-        <v>152.233908045977</v>
+        <v>152.2353448275862</v>
       </c>
       <c r="AJ29">
-        <v>56.14744463675601</v>
+        <v>56.15096212449815</v>
       </c>
       <c r="AK29">
         <v>93.2</v>
@@ -5764,10 +5764,10 @@
         <v>696</v>
       </c>
       <c r="AQ29">
-        <v>39.99452586206899</v>
+        <v>39.99538793103451</v>
       </c>
       <c r="AR29">
-        <v>24.21026222280897</v>
+        <v>24.21022733810987</v>
       </c>
       <c r="AS29">
         <v>1.75</v>
@@ -5788,10 +5788,10 @@
         <v>696</v>
       </c>
       <c r="AY29">
-        <v>0.0108490839137931</v>
+        <v>0.01084908139367816</v>
       </c>
       <c r="AZ29">
-        <v>0.01260334895822185</v>
+        <v>0.01260334939890733</v>
       </c>
       <c r="BA29">
         <v>-3.45E-05</v>
@@ -5812,10 +5812,10 @@
         <v>696</v>
       </c>
       <c r="BG29">
-        <v>0.2941890255747127</v>
+        <v>0.2941857091091955</v>
       </c>
       <c r="BH29">
-        <v>0.2270571044597872</v>
+        <v>0.2270536422590747</v>
       </c>
       <c r="BI29">
         <v>-0.00131</v>
@@ -5865,10 +5865,10 @@
         <v>696</v>
       </c>
       <c r="K30">
-        <v>41.53965517241375</v>
+        <v>41.53922413793099</v>
       </c>
       <c r="L30">
-        <v>2.157251621202737</v>
+        <v>2.156829267859906</v>
       </c>
       <c r="M30">
         <v>38.5</v>
@@ -5889,10 +5889,10 @@
         <v>696</v>
       </c>
       <c r="S30">
-        <v>7.419066091954018</v>
+        <v>7.418606321839079</v>
       </c>
       <c r="T30">
-        <v>0.6605499049432472</v>
+        <v>0.6602597571810528</v>
       </c>
       <c r="U30">
         <v>6.4</v>
@@ -5901,7 +5901,7 @@
         <v>6.88</v>
       </c>
       <c r="W30">
-        <v>7.275</v>
+        <v>7.27</v>
       </c>
       <c r="X30">
         <v>7.98</v>
@@ -5937,10 +5937,10 @@
         <v>696</v>
       </c>
       <c r="AI30">
-        <v>152.226724137931</v>
+        <v>152.2252873563218</v>
       </c>
       <c r="AJ30">
-        <v>56.13346765760753</v>
+        <v>56.13115364919245</v>
       </c>
       <c r="AK30">
         <v>93.2</v>
@@ -5961,10 +5961,10 @@
         <v>696</v>
       </c>
       <c r="AQ30">
-        <v>39.98965517241382</v>
+        <v>39.98991379310347</v>
       </c>
       <c r="AR30">
-        <v>24.20595233049604</v>
+        <v>24.20597152659886</v>
       </c>
       <c r="AS30">
         <v>1.75</v>
@@ -5985,10 +5985,10 @@
         <v>696</v>
       </c>
       <c r="AY30">
-        <v>0.01102021034482759</v>
+        <v>0.01102023721264368</v>
       </c>
       <c r="AZ30">
-        <v>0.0128129345563891</v>
+        <v>0.01281292350658698</v>
       </c>
       <c r="BA30">
         <v>1.5E-05</v>
@@ -6009,13 +6009,13 @@
         <v>696</v>
       </c>
       <c r="BG30">
-        <v>0.2983505129310348</v>
+        <v>0.2983504482758624</v>
       </c>
       <c r="BH30">
-        <v>0.2293716017976631</v>
+        <v>0.2293716851085461</v>
       </c>
       <c r="BI30">
-        <v>0.000749</v>
+        <v>0.00075</v>
       </c>
       <c r="BJ30">
         <v>0.0885</v>
@@ -6062,10 +6062,10 @@
         <v>696</v>
       </c>
       <c r="K31">
-        <v>41.53864942528731</v>
+        <v>41.53850574712639</v>
       </c>
       <c r="L31">
-        <v>2.157933440696095</v>
+        <v>2.157792652434931</v>
       </c>
       <c r="M31">
         <v>38.5</v>
@@ -6086,10 +6086,10 @@
         <v>696</v>
       </c>
       <c r="S31">
-        <v>7.417988505747124</v>
+        <v>7.417643678160921</v>
       </c>
       <c r="T31">
-        <v>0.6600483783316151</v>
+        <v>0.6601187331963935</v>
       </c>
       <c r="U31">
         <v>6.4</v>
@@ -6134,10 +6134,10 @@
         <v>696</v>
       </c>
       <c r="AI31">
-        <v>152.2224137931034</v>
+        <v>152.2166666666667</v>
       </c>
       <c r="AJ31">
-        <v>56.12652523565426</v>
+        <v>56.11665145697306</v>
       </c>
       <c r="AK31">
         <v>93.2</v>
@@ -6158,10 +6158,10 @@
         <v>696</v>
       </c>
       <c r="AQ31">
-        <v>39.98576149425287</v>
+        <v>39.98528735632183</v>
       </c>
       <c r="AR31">
-        <v>24.20197874056707</v>
+        <v>24.20184062631353</v>
       </c>
       <c r="AS31">
         <v>1.75</v>
@@ -6182,10 +6182,10 @@
         <v>696</v>
       </c>
       <c r="AY31">
-        <v>0.01118117341954023</v>
+        <v>0.01118133117816092</v>
       </c>
       <c r="AZ31">
-        <v>0.01301481907234473</v>
+        <v>0.01301484247078754</v>
       </c>
       <c r="BA31">
         <v>1.55E-05</v>
@@ -6206,10 +6206,10 @@
         <v>696</v>
       </c>
       <c r="BG31">
-        <v>0.302250985632184</v>
+        <v>0.3022526005747128</v>
       </c>
       <c r="BH31">
-        <v>0.2315002988802207</v>
+        <v>0.2315011023401353</v>
       </c>
       <c r="BI31">
         <v>0.000775</v>
@@ -6379,10 +6379,10 @@
         <v>696</v>
       </c>
       <c r="AY32">
-        <v>0.01133884669540231</v>
+        <v>0.01133899123563219</v>
       </c>
       <c r="AZ32">
-        <v>0.01321124986412468</v>
+        <v>0.01321123508840879</v>
       </c>
       <c r="BA32">
         <v>1.59E-05</v>
@@ -6403,13 +6403,13 @@
         <v>696</v>
       </c>
       <c r="BG32">
-        <v>0.3059801077586206</v>
+        <v>0.3059858793103447</v>
       </c>
       <c r="BH32">
-        <v>0.2334935527343174</v>
+        <v>0.233496060042362</v>
       </c>
       <c r="BI32">
-        <v>0.000795</v>
+        <v>0.000796</v>
       </c>
       <c r="BJ32">
         <v>0.092225</v>
@@ -6480,10 +6480,10 @@
         <v>696</v>
       </c>
       <c r="S33">
-        <v>7.415962643678168</v>
+        <v>7.415948275862076</v>
       </c>
       <c r="T33">
-        <v>0.6591836623891485</v>
+        <v>0.6591491945152604</v>
       </c>
       <c r="U33">
         <v>6.4</v>
@@ -6576,10 +6576,10 @@
         <v>696</v>
       </c>
       <c r="AY33">
-        <v>0.01148971681034481</v>
+        <v>0.01148986048850573</v>
       </c>
       <c r="AZ33">
-        <v>0.01340211469345234</v>
+        <v>0.01340228711451911</v>
       </c>
       <c r="BA33">
         <v>1.65E-05</v>
@@ -6797,10 +6797,10 @@
         <v>696</v>
       </c>
       <c r="BG34">
-        <v>0.313202531609195</v>
+        <v>0.3132039683908042</v>
       </c>
       <c r="BH34">
-        <v>0.2376485416219825</v>
+        <v>0.2376497724839514</v>
       </c>
       <c r="BI34">
         <v>0.000857</v>
@@ -6970,10 +6970,10 @@
         <v>696</v>
       </c>
       <c r="AY35">
-        <v>0.01177619281609195</v>
+        <v>0.01177633649425287</v>
       </c>
       <c r="AZ35">
-        <v>0.01376927937816092</v>
+        <v>0.01376977441076807</v>
       </c>
       <c r="BA35">
         <v>1.78E-05</v>
@@ -7191,10 +7191,10 @@
         <v>696</v>
       </c>
       <c r="BG36">
-        <v>0.3199812543103447</v>
+        <v>0.3199841422413792</v>
       </c>
       <c r="BH36">
-        <v>0.2415810918225742</v>
+        <v>0.2415833541658121</v>
       </c>
       <c r="BI36">
         <v>0.00091</v>
@@ -7364,10 +7364,10 @@
         <v>696</v>
       </c>
       <c r="AY37">
-        <v>0.01204543448275862</v>
+        <v>0.01204543433908046</v>
       </c>
       <c r="AZ37">
-        <v>0.01411830744524411</v>
+        <v>0.01411830756722343</v>
       </c>
       <c r="BA37">
         <v>1.88E-05</v>
@@ -7561,10 +7561,10 @@
         <v>696</v>
       </c>
       <c r="AY38">
-        <v>0.01217817040229884</v>
+        <v>0.01217817025862068</v>
       </c>
       <c r="AZ38">
-        <v>0.014290237090994</v>
+        <v>0.01429023721321277</v>
       </c>
       <c r="BA38">
         <v>1.91E-05</v>
@@ -7588,7 +7588,7 @@
         <v>0.3265954899425286</v>
       </c>
       <c r="BH38">
-        <v>0.245439473500937</v>
+        <v>0.2454428150103135</v>
       </c>
       <c r="BI38">
         <v>0.000961</v>
@@ -7758,10 +7758,10 @@
         <v>696</v>
       </c>
       <c r="AY39">
-        <v>0.01231356896551723</v>
+        <v>0.01231356954022987</v>
       </c>
       <c r="AZ39">
-        <v>0.01446007493998859</v>
+        <v>0.01446007445150909</v>
       </c>
       <c r="BA39">
         <v>1.93E-05</v>
@@ -7782,10 +7782,10 @@
         <v>696</v>
       </c>
       <c r="BG39">
-        <v>0.3300525086206896</v>
+        <v>0.330053959770115</v>
       </c>
       <c r="BH39">
-        <v>0.2477428591063928</v>
+        <v>0.2477433014152915</v>
       </c>
       <c r="BI39">
         <v>0.000968</v>
@@ -7955,10 +7955,10 @@
         <v>696</v>
       </c>
       <c r="AY40">
-        <v>0.01244698620689655</v>
+        <v>0.01244698635057471</v>
       </c>
       <c r="AZ40">
-        <v>0.0146283560963658</v>
+        <v>0.01462835597428068</v>
       </c>
       <c r="BA40">
         <v>1.96E-05</v>
@@ -7979,10 +7979,10 @@
         <v>696</v>
       </c>
       <c r="BG40">
-        <v>0.3334926681034482</v>
+        <v>0.3334955560344828</v>
       </c>
       <c r="BH40">
-        <v>0.2499596976948218</v>
+        <v>0.2499629654755696</v>
       </c>
       <c r="BI40">
         <v>0.0009859999999999999</v>
@@ -8152,10 +8152,10 @@
         <v>696</v>
       </c>
       <c r="AY41">
-        <v>0.01257203218390805</v>
+        <v>0.01257203232758621</v>
       </c>
       <c r="AZ41">
-        <v>0.01479405638175061</v>
+        <v>0.01479405625987606</v>
       </c>
       <c r="BA41">
         <v>2.02E-05</v>
@@ -8176,10 +8176,10 @@
         <v>696</v>
       </c>
       <c r="BG41">
-        <v>0.3366000143678161</v>
+        <v>0.3366014511494252</v>
       </c>
       <c r="BH41">
-        <v>0.251609323016697</v>
+        <v>0.2516114726188586</v>
       </c>
       <c r="BI41">
         <v>0.00102</v>
@@ -8373,10 +8373,10 @@
         <v>696</v>
       </c>
       <c r="BG42">
-        <v>0.3396280603448275</v>
+        <v>0.3396294827586205</v>
       </c>
       <c r="BH42">
-        <v>0.2533315991187431</v>
+        <v>0.2533331738342056</v>
       </c>
       <c r="BI42">
         <v>0.00105</v>
@@ -8743,10 +8743,10 @@
         <v>696</v>
       </c>
       <c r="AY44">
-        <v>0.01293445962643676</v>
+        <v>0.01293460330459768</v>
       </c>
       <c r="AZ44">
-        <v>0.01528873246375798</v>
+        <v>0.01528877025397664</v>
       </c>
       <c r="BA44">
         <v>2.14E-05</v>
@@ -8940,10 +8940,10 @@
         <v>696</v>
       </c>
       <c r="AY45">
-        <v>0.01305859554597701</v>
+        <v>0.01305873922413793</v>
       </c>
       <c r="AZ45">
-        <v>0.01546417779613761</v>
+        <v>0.01546457872992479</v>
       </c>
       <c r="BA45">
         <v>2.17E-05</v>
@@ -8964,10 +8964,10 @@
         <v>696</v>
       </c>
       <c r="BG45">
-        <v>0.3482418534482762</v>
+        <v>0.3482432902298855</v>
       </c>
       <c r="BH45">
-        <v>0.2590841469820629</v>
+        <v>0.2590854757179717</v>
       </c>
       <c r="BI45">
         <v>0.00109</v>
@@ -9137,10 +9137,10 @@
         <v>696</v>
       </c>
       <c r="AY46">
-        <v>0.01318619956896553</v>
+        <v>0.01318619971264369</v>
       </c>
       <c r="AZ46">
-        <v>0.01563275197451599</v>
+        <v>0.01563275185349862</v>
       </c>
       <c r="BA46">
         <v>2.17E-05</v>
@@ -9161,10 +9161,10 @@
         <v>696</v>
       </c>
       <c r="BG46">
-        <v>0.3516148994252873</v>
+        <v>0.3516163362068965</v>
       </c>
       <c r="BH46">
-        <v>0.2628797918654321</v>
+        <v>0.2628815755582656</v>
       </c>
       <c r="BI46">
         <v>0.00109</v>
@@ -9334,10 +9334,10 @@
         <v>696</v>
       </c>
       <c r="AY47">
-        <v>0.01330267614942527</v>
+        <v>0.01330283419540228</v>
       </c>
       <c r="AZ47">
-        <v>0.0157905480552572</v>
+        <v>0.01579104207286711</v>
       </c>
       <c r="BA47">
         <v>2.18E-05</v>
@@ -9358,10 +9358,10 @@
         <v>696</v>
       </c>
       <c r="BG47">
-        <v>0.3544709482758615</v>
+        <v>0.3544723850574707</v>
       </c>
       <c r="BH47">
-        <v>0.2641061219347556</v>
+        <v>0.2641072825095726</v>
       </c>
       <c r="BI47">
         <v>0.0011</v>
@@ -9555,10 +9555,10 @@
         <v>696</v>
       </c>
       <c r="BG48">
-        <v>0.3563554885057467</v>
+        <v>0.3563555028735628</v>
       </c>
       <c r="BH48">
-        <v>0.26302452593423</v>
+        <v>0.2630245065224939</v>
       </c>
       <c r="BI48">
         <v>0.00116</v>
@@ -9728,10 +9728,10 @@
         <v>696</v>
       </c>
       <c r="AY49">
-        <v>0.01349863965517242</v>
+        <v>0.01349865416666667</v>
       </c>
       <c r="AZ49">
-        <v>0.01608178748306999</v>
+        <v>0.01608178418316009</v>
       </c>
       <c r="BA49">
         <v>2.24E-05</v>
@@ -9752,10 +9752,10 @@
         <v>696</v>
       </c>
       <c r="BG49">
-        <v>0.3589498419540227</v>
+        <v>0.3589512787356319</v>
       </c>
       <c r="BH49">
-        <v>0.2648147955061574</v>
+        <v>0.2648162057424546</v>
       </c>
       <c r="BI49">
         <v>0.00113</v>
@@ -9925,10 +9925,10 @@
         <v>696</v>
       </c>
       <c r="AY50">
-        <v>0.01361154468390802</v>
+        <v>0.01361154482758618</v>
       </c>
       <c r="AZ50">
-        <v>0.01623618858301579</v>
+        <v>0.01623618846259561</v>
       </c>
       <c r="BA50">
         <v>2.25E-05</v>
@@ -9949,10 +9949,10 @@
         <v>696</v>
       </c>
       <c r="BG50">
-        <v>0.3620685919540229</v>
+        <v>0.3620714511494252</v>
       </c>
       <c r="BH50">
-        <v>0.2677347825671664</v>
+        <v>0.2677358545294689</v>
       </c>
       <c r="BI50">
         <v>0.00114</v>
@@ -10125,7 +10125,7 @@
         <v>0.01372002442528735</v>
       </c>
       <c r="AZ51">
-        <v>0.01638969137345837</v>
+        <v>0.0163896953064442</v>
       </c>
       <c r="BA51">
         <v>2.3E-05</v>
@@ -10343,10 +10343,10 @@
         <v>696</v>
       </c>
       <c r="BG52">
-        <v>0.3679498563218396</v>
+        <v>0.3679512787356328</v>
       </c>
       <c r="BH52">
-        <v>0.2735747903101028</v>
+        <v>0.2735755277534099</v>
       </c>
       <c r="BI52">
         <v>0.00117</v>
@@ -10540,10 +10540,10 @@
         <v>696</v>
       </c>
       <c r="BG53">
-        <v>0.3706137212643683</v>
+        <v>0.3706151436781615</v>
       </c>
       <c r="BH53">
-        <v>0.2755132137855619</v>
+        <v>0.2755145171743082</v>
       </c>
       <c r="BI53">
         <v>0.00119</v>
@@ -10713,10 +10713,10 @@
         <v>696</v>
       </c>
       <c r="AY54">
-        <v>0.01402512586206895</v>
+        <v>0.0140251547413793</v>
       </c>
       <c r="AZ54">
-        <v>0.01682491563423338</v>
+        <v>0.01682490706552479</v>
       </c>
       <c r="BA54">
         <v>2.38E-05</v>
@@ -10737,10 +10737,10 @@
         <v>696</v>
       </c>
       <c r="BG54">
-        <v>0.3731202155172412</v>
+        <v>0.3731245258620688</v>
       </c>
       <c r="BH54">
-        <v>0.2773950144232228</v>
+        <v>0.2773996678156542</v>
       </c>
       <c r="BI54">
         <v>0.0012</v>
@@ -10910,10 +10910,10 @@
         <v>696</v>
       </c>
       <c r="AY55">
-        <v>0.0141240639367816</v>
+        <v>0.01412407830459769</v>
       </c>
       <c r="AZ55">
-        <v>0.01696933027451553</v>
+        <v>0.01696932547612375</v>
       </c>
       <c r="BA55">
         <v>2.41E-05</v>
@@ -10934,10 +10934,10 @@
         <v>696</v>
       </c>
       <c r="BG55">
-        <v>0.3756700574712642</v>
+        <v>0.3756729310344825</v>
       </c>
       <c r="BH55">
-        <v>0.2797317946808915</v>
+        <v>0.2797345036193025</v>
       </c>
       <c r="BI55">
         <v>0.00121</v>
@@ -11131,10 +11131,10 @@
         <v>696</v>
       </c>
       <c r="BG56">
-        <v>0.3784501580459774</v>
+        <v>0.3784515948275866</v>
       </c>
       <c r="BH56">
-        <v>0.2824549825178937</v>
+        <v>0.2824569847353721</v>
       </c>
       <c r="BI56">
         <v>0.00121</v>
@@ -11304,10 +11304,10 @@
         <v>696</v>
       </c>
       <c r="AY57">
-        <v>0.01431632356321841</v>
+        <v>0.0143163379310345</v>
       </c>
       <c r="AZ57">
-        <v>0.0172431834926434</v>
+        <v>0.01724317702458254</v>
       </c>
       <c r="BA57">
         <v>2.41E-05</v>
@@ -11328,10 +11328,10 @@
         <v>696</v>
       </c>
       <c r="BG57">
-        <v>0.3811145402298852</v>
+        <v>0.3811159626436783</v>
       </c>
       <c r="BH57">
-        <v>0.2846389638733535</v>
+        <v>0.2846400970974027</v>
       </c>
       <c r="BI57">
         <v>0.00122</v>
@@ -11501,10 +11501,10 @@
         <v>696</v>
       </c>
       <c r="AY58">
-        <v>0.01440325129310344</v>
+        <v>0.01440326551724137</v>
       </c>
       <c r="AZ58">
-        <v>0.01736778649227292</v>
+        <v>0.01736778013410486</v>
       </c>
       <c r="BA58">
         <v>2.44E-05</v>
@@ -11528,7 +11528,7 @@
         <v>0.3834833045977016</v>
       </c>
       <c r="BH58">
-        <v>0.2862443946137092</v>
+        <v>0.2862443945936026</v>
       </c>
       <c r="BI58">
         <v>0.00123</v>
@@ -11722,10 +11722,10 @@
         <v>696</v>
       </c>
       <c r="BG59">
-        <v>0.3857518390804595</v>
+        <v>0.3857518247126434</v>
       </c>
       <c r="BH59">
-        <v>0.2880455280391896</v>
+        <v>0.2880455472216497</v>
       </c>
       <c r="BI59">
         <v>0.00125</v>
@@ -11919,10 +11919,10 @@
         <v>696</v>
       </c>
       <c r="BG60">
-        <v>0.3881395977011493</v>
+        <v>0.3881381609195401</v>
       </c>
       <c r="BH60">
-        <v>0.2902022675086741</v>
+        <v>0.2902035597767825</v>
       </c>
       <c r="BI60">
         <v>0.00125</v>
@@ -12092,10 +12092,10 @@
         <v>696</v>
       </c>
       <c r="AY61">
-        <v>0.01467221350574711</v>
+        <v>0.01467221321839078</v>
       </c>
       <c r="AZ61">
-        <v>0.01777386072105125</v>
+        <v>0.01777386095757777</v>
       </c>
       <c r="BA61">
         <v>2.48E-05</v>
@@ -12313,10 +12313,10 @@
         <v>696</v>
       </c>
       <c r="BG62">
-        <v>0.3930107183908048</v>
+        <v>0.3930135919540232</v>
       </c>
       <c r="BH62">
-        <v>0.294688683523147</v>
+        <v>0.2946919303199742</v>
       </c>
       <c r="BI62">
         <v>0.00126</v>
@@ -12683,10 +12683,10 @@
         <v>696</v>
       </c>
       <c r="AY64">
-        <v>0.01493722543103447</v>
+        <v>0.01493722514367815</v>
       </c>
       <c r="AZ64">
-        <v>0.01816366550155168</v>
+        <v>0.01816366573752718</v>
       </c>
       <c r="BA64">
         <v>2.5E-05</v>
@@ -12707,10 +12707,10 @@
         <v>696</v>
       </c>
       <c r="BG64">
-        <v>0.3979920833333332</v>
+        <v>0.3979922413793102</v>
       </c>
       <c r="BH64">
-        <v>0.2996691122571313</v>
+        <v>0.2996689434349669</v>
       </c>
       <c r="BI64">
         <v>0.00126</v>
@@ -12832,10 +12832,10 @@
         <v>696</v>
       </c>
       <c r="AI65">
-        <v>151.8439655172414</v>
+        <v>151.8425287356322</v>
       </c>
       <c r="AJ65">
-        <v>55.74005695318328</v>
+        <v>55.74107253293092</v>
       </c>
       <c r="AK65">
         <v>93</v>
@@ -12880,10 +12880,10 @@
         <v>696</v>
       </c>
       <c r="AY65">
-        <v>0.01502445445402299</v>
+        <v>0.01502448304597702</v>
       </c>
       <c r="AZ65">
-        <v>0.01829038116749769</v>
+        <v>0.01829036755097489</v>
       </c>
       <c r="BA65">
         <v>2.49E-05</v>
@@ -12904,10 +12904,10 @@
         <v>696</v>
       </c>
       <c r="BG65">
-        <v>0.4005799856321842</v>
+        <v>0.4005814224137934</v>
       </c>
       <c r="BH65">
-        <v>0.3019328858468836</v>
+        <v>0.3019342007262339</v>
       </c>
       <c r="BI65">
         <v>0.00126</v>
@@ -13077,10 +13077,10 @@
         <v>696</v>
       </c>
       <c r="AY66">
-        <v>0.01510717068965518</v>
+        <v>0.01510717083333334</v>
       </c>
       <c r="AZ66">
-        <v>0.01841015713853439</v>
+        <v>0.01841015702082001</v>
       </c>
       <c r="BA66">
         <v>2.53E-05</v>
@@ -13274,10 +13274,10 @@
         <v>696</v>
       </c>
       <c r="AY67">
-        <v>0.01518632758620691</v>
+        <v>0.01518635632183909</v>
       </c>
       <c r="AZ67">
-        <v>0.01853463685954359</v>
+        <v>0.01853462729340795</v>
       </c>
       <c r="BA67">
         <v>2.56E-05</v>
@@ -13298,10 +13298,10 @@
         <v>696</v>
       </c>
       <c r="BG67">
-        <v>0.4049424568965518</v>
+        <v>0.404943893678161</v>
       </c>
       <c r="BH67">
-        <v>0.3052028377252377</v>
+        <v>0.3052038539451082</v>
       </c>
       <c r="BI67">
         <v>0.00129</v>
@@ -13471,10 +13471,10 @@
         <v>696</v>
       </c>
       <c r="AY68">
-        <v>0.01526618520114943</v>
+        <v>0.01526618548850575</v>
       </c>
       <c r="AZ68">
-        <v>0.01866692389069432</v>
+        <v>0.01866692365584682</v>
       </c>
       <c r="BA68">
         <v>2.57E-05</v>
@@ -13495,10 +13495,10 @@
         <v>696</v>
       </c>
       <c r="BG68">
-        <v>0.406991738505747</v>
+        <v>0.4069917097701149</v>
       </c>
       <c r="BH68">
-        <v>0.3069381694139071</v>
+        <v>0.3069382074434256</v>
       </c>
       <c r="BI68">
         <v>0.0013</v>
@@ -13668,13 +13668,13 @@
         <v>696</v>
       </c>
       <c r="AY69">
-        <v>0.0153438077586207</v>
+        <v>0.01534380905172414</v>
       </c>
       <c r="AZ69">
-        <v>0.0187893629071987</v>
+        <v>0.01878936185942212</v>
       </c>
       <c r="BA69">
-        <v>2.58E-05</v>
+        <v>2.57E-05</v>
       </c>
       <c r="BB69">
         <v>0.0047025</v>
@@ -13692,10 +13692,10 @@
         <v>696</v>
       </c>
       <c r="BG69">
-        <v>0.4089926149425291</v>
+        <v>0.4089969252873567</v>
       </c>
       <c r="BH69">
-        <v>0.3084496200147651</v>
+        <v>0.3084532329357535</v>
       </c>
       <c r="BI69">
         <v>0.0013</v>
@@ -13707,7 +13707,7 @@
         <v>0.341</v>
       </c>
       <c r="BL69">
-        <v>0.6912499999999999</v>
+        <v>0.6915</v>
       </c>
       <c r="BM69">
         <v>1.32</v>
@@ -13865,10 +13865,10 @@
         <v>696</v>
       </c>
       <c r="AY70">
-        <v>0.01541360229885056</v>
+        <v>0.0154137606321839</v>
       </c>
       <c r="AZ70">
-        <v>0.01889950777874807</v>
+        <v>0.01889952497439058</v>
       </c>
       <c r="BA70">
         <v>2.59E-05</v>
@@ -13889,10 +13889,10 @@
         <v>696</v>
       </c>
       <c r="BG70">
-        <v>0.4108415086206904</v>
+        <v>0.4108458620689663</v>
       </c>
       <c r="BH70">
-        <v>0.3095601521047274</v>
+        <v>0.3095633391914201</v>
       </c>
       <c r="BI70">
         <v>0.00131</v>
@@ -14062,10 +14062,10 @@
         <v>696</v>
       </c>
       <c r="AY71">
-        <v>0.0154815889367816</v>
+        <v>0.01548158879310344</v>
       </c>
       <c r="AZ71">
-        <v>0.01902363198231071</v>
+        <v>0.01902363209955708</v>
       </c>
       <c r="BA71">
         <v>2.62E-05</v>
@@ -14086,10 +14086,10 @@
         <v>696</v>
       </c>
       <c r="BG71">
-        <v>0.412468232758621</v>
+        <v>0.4124696695402301</v>
       </c>
       <c r="BH71">
-        <v>0.3103536260951327</v>
+        <v>0.3103542892091844</v>
       </c>
       <c r="BI71">
         <v>0.00132</v>
@@ -14163,10 +14163,10 @@
         <v>696</v>
       </c>
       <c r="S72">
-        <v>7.389497126436786</v>
+        <v>7.389482758620693</v>
       </c>
       <c r="T72">
-        <v>0.6502038684099994</v>
+        <v>0.6501889197433187</v>
       </c>
       <c r="U72">
         <v>6.39</v>
@@ -14259,10 +14259,10 @@
         <v>696</v>
       </c>
       <c r="AY72">
-        <v>0.01554998002873562</v>
+        <v>0.01554997974137929</v>
       </c>
       <c r="AZ72">
-        <v>0.01913349755172931</v>
+        <v>0.01913349778518904</v>
       </c>
       <c r="BA72">
         <v>2.61E-05</v>
@@ -14283,10 +14283,10 @@
         <v>696</v>
       </c>
       <c r="BG72">
-        <v>0.4141534339080465</v>
+        <v>0.4141563074712649</v>
       </c>
       <c r="BH72">
-        <v>0.3115247011971298</v>
+        <v>0.3115284871064981</v>
       </c>
       <c r="BI72">
         <v>0.00132</v>
@@ -14456,10 +14456,10 @@
         <v>696</v>
       </c>
       <c r="AY73">
-        <v>0.0156144370689655</v>
+        <v>0.01561443721264367</v>
       </c>
       <c r="AZ73">
-        <v>0.01924864016802203</v>
+        <v>0.01924864005167791</v>
       </c>
       <c r="BA73">
         <v>2.63E-05</v>
@@ -14480,10 +14480,10 @@
         <v>696</v>
       </c>
       <c r="BG73">
-        <v>0.415758218390805</v>
+        <v>0.4157610919540234</v>
       </c>
       <c r="BH73">
-        <v>0.3124414876876564</v>
+        <v>0.3124445246993992</v>
       </c>
       <c r="BI73">
         <v>0.00133</v>
@@ -14653,10 +14653,10 @@
         <v>696</v>
       </c>
       <c r="AY74">
-        <v>0.0156749426724138</v>
+        <v>0.01567494123563219</v>
       </c>
       <c r="AZ74">
-        <v>0.01936025681654394</v>
+        <v>0.019360257942745</v>
       </c>
       <c r="BA74">
         <v>2.66E-05</v>
@@ -14677,10 +14677,10 @@
         <v>696</v>
       </c>
       <c r="BG74">
-        <v>0.4171309339080459</v>
+        <v>0.4171309482758619</v>
       </c>
       <c r="BH74">
-        <v>0.3130205594927747</v>
+        <v>0.3130205404172838</v>
       </c>
       <c r="BI74">
         <v>0.00134</v>
@@ -14850,10 +14850,10 @@
         <v>696</v>
       </c>
       <c r="AY75">
-        <v>0.01573374741379311</v>
+        <v>0.01573374727011495</v>
       </c>
       <c r="AZ75">
-        <v>0.01946859836473125</v>
+        <v>0.01946859848067445</v>
       </c>
       <c r="BA75">
         <v>2.67E-05</v>
@@ -14874,10 +14874,10 @@
         <v>696</v>
       </c>
       <c r="BG75">
-        <v>0.4183932902298857</v>
+        <v>0.41840334770115</v>
       </c>
       <c r="BH75">
-        <v>0.3136386721846243</v>
+        <v>0.3136485248733868</v>
       </c>
       <c r="BI75">
         <v>0.00134</v>
@@ -15047,10 +15047,10 @@
         <v>696</v>
       </c>
       <c r="AY76">
-        <v>0.01579220114942529</v>
+        <v>0.01579220143678162</v>
       </c>
       <c r="AZ76">
-        <v>0.01957172386166347</v>
+        <v>0.01957172363004756</v>
       </c>
       <c r="BA76">
         <v>2.66E-05</v>
@@ -15071,10 +15071,10 @@
         <v>696</v>
       </c>
       <c r="BG76">
-        <v>0.4198048563218395</v>
+        <v>0.4198048419540235</v>
       </c>
       <c r="BH76">
-        <v>0.3145151238201973</v>
+        <v>0.3145151429438372</v>
       </c>
       <c r="BI76">
         <v>0.00134</v>
@@ -15244,10 +15244,10 @@
         <v>696</v>
       </c>
       <c r="AY77">
-        <v>0.01585094295977011</v>
+        <v>0.01585095704022988</v>
       </c>
       <c r="AZ77">
-        <v>0.01968327086121267</v>
+        <v>0.01968326439953844</v>
       </c>
       <c r="BA77">
         <v>2.66E-05</v>
@@ -15268,10 +15268,10 @@
         <v>696</v>
       </c>
       <c r="BG77">
-        <v>0.4210674568965522</v>
+        <v>0.4210703304597705</v>
       </c>
       <c r="BH77">
-        <v>0.315172001556119</v>
+        <v>0.3151752879126566</v>
       </c>
       <c r="BI77">
         <v>0.00134</v>
@@ -15441,10 +15441,10 @@
         <v>696</v>
       </c>
       <c r="AY78">
-        <v>0.01591737586206896</v>
+        <v>0.01591737614942528</v>
       </c>
       <c r="AZ78">
-        <v>0.01980028282552145</v>
+        <v>0.01980028259502513</v>
       </c>
       <c r="BA78">
         <v>2.64E-05</v>
@@ -15465,10 +15465,10 @@
         <v>696</v>
       </c>
       <c r="BG78">
-        <v>0.4227271839080465</v>
+        <v>0.4227286206896557</v>
       </c>
       <c r="BH78">
-        <v>0.3168736613918181</v>
+        <v>0.3168757672732347</v>
       </c>
       <c r="BI78">
         <v>0.00133</v>
@@ -15638,10 +15638,10 @@
         <v>696</v>
       </c>
       <c r="AY79">
-        <v>0.01598149985632184</v>
+        <v>0.01598152859195402</v>
       </c>
       <c r="AZ79">
-        <v>0.01990650818975449</v>
+        <v>0.01990649282799517</v>
       </c>
       <c r="BA79">
         <v>2.64E-05</v>
@@ -15662,10 +15662,10 @@
         <v>696</v>
       </c>
       <c r="BG79">
-        <v>0.4244838362068966</v>
+        <v>0.4244852729885057</v>
       </c>
       <c r="BH79">
-        <v>0.3185148915160681</v>
+        <v>0.3185164817052817</v>
       </c>
       <c r="BI79">
         <v>0.00133</v>
@@ -15835,10 +15835,10 @@
         <v>696</v>
       </c>
       <c r="AY80">
-        <v>0.01603975502873563</v>
+        <v>0.01603975517241379</v>
       </c>
       <c r="AZ80">
-        <v>0.02000536774245194</v>
+        <v>0.02000536762775608</v>
       </c>
       <c r="BA80">
         <v>2.66E-05</v>
@@ -15859,10 +15859,10 @@
         <v>696</v>
       </c>
       <c r="BG80">
-        <v>0.4259436063218396</v>
+        <v>0.4259450574712649</v>
       </c>
       <c r="BH80">
-        <v>0.3194840296726845</v>
+        <v>0.3194864180038291</v>
       </c>
       <c r="BI80">
         <v>0.00134</v>
@@ -16032,10 +16032,10 @@
         <v>696</v>
       </c>
       <c r="AY81">
-        <v>0.01609639870689654</v>
+        <v>0.01609639856321838</v>
       </c>
       <c r="AZ81">
-        <v>0.02011001514180815</v>
+        <v>0.02011001525677969</v>
       </c>
       <c r="BA81">
         <v>2.67E-05</v>
@@ -16056,10 +16056,10 @@
         <v>696</v>
       </c>
       <c r="BG81">
-        <v>0.4274079310344827</v>
+        <v>0.4274122413793104</v>
       </c>
       <c r="BH81">
-        <v>0.3207111953346491</v>
+        <v>0.3207150189619665</v>
       </c>
       <c r="BI81">
         <v>0.00135</v>
@@ -16229,10 +16229,10 @@
         <v>696</v>
       </c>
       <c r="AY82">
-        <v>0.0161507981321839</v>
+        <v>0.01615081264367815</v>
       </c>
       <c r="AZ82">
-        <v>0.02021226844077689</v>
+        <v>0.02021226318218929</v>
       </c>
       <c r="BA82">
         <v>2.69E-05</v>
@@ -16253,13 +16253,13 @@
         <v>696</v>
       </c>
       <c r="BG82">
-        <v>0.4286136350574712</v>
+        <v>0.4286150718390803</v>
       </c>
       <c r="BH82">
-        <v>0.3216062338180842</v>
+        <v>0.3216077812970112</v>
       </c>
       <c r="BI82">
-        <v>0.00136</v>
+        <v>0.00135</v>
       </c>
       <c r="BJ82">
         <v>0.12725</v>
@@ -16330,10 +16330,10 @@
         <v>696</v>
       </c>
       <c r="S83">
-        <v>7.386221264367824</v>
+        <v>7.386206896551731</v>
       </c>
       <c r="T83">
-        <v>0.6492780295102633</v>
+        <v>0.6492660894994833</v>
       </c>
       <c r="U83">
         <v>6.39</v>
@@ -16345,7 +16345,7 @@
         <v>7.265</v>
       </c>
       <c r="X83">
-        <v>7.922499999999999</v>
+        <v>7.92</v>
       </c>
       <c r="Y83">
         <v>8.93</v>
@@ -16429,7 +16429,7 @@
         <v>0.01620551307471261</v>
       </c>
       <c r="AZ83">
-        <v>0.02031526418056353</v>
+        <v>0.02031526459843693</v>
       </c>
       <c r="BA83">
         <v>2.69E-05</v>
@@ -16623,10 +16623,10 @@
         <v>696</v>
       </c>
       <c r="AY84">
-        <v>0.01626050804597701</v>
+        <v>0.01626052284482759</v>
       </c>
       <c r="AZ84">
-        <v>0.02041720098954704</v>
+        <v>0.02041719500524912</v>
       </c>
       <c r="BA84">
         <v>2.68E-05</v>
@@ -16647,10 +16647,10 @@
         <v>696</v>
       </c>
       <c r="BG84">
-        <v>0.4314364798850571</v>
+        <v>0.4314378879310341</v>
       </c>
       <c r="BH84">
-        <v>0.3242637848589389</v>
+        <v>0.3242653674544244</v>
       </c>
       <c r="BI84">
         <v>0.00135</v>
@@ -16820,10 +16820,10 @@
         <v>696</v>
       </c>
       <c r="AY85">
-        <v>0.01632438002873563</v>
+        <v>0.01632438045977011</v>
       </c>
       <c r="AZ85">
-        <v>0.02052304888443643</v>
+        <v>0.02052304854196841</v>
       </c>
       <c r="BA85">
         <v>2.64E-05</v>
@@ -16844,10 +16844,10 @@
         <v>696</v>
       </c>
       <c r="BG85">
-        <v>0.4331202442528738</v>
+        <v>0.4331216954022991</v>
       </c>
       <c r="BH85">
-        <v>0.3262389705873109</v>
+        <v>0.3262395530510721</v>
       </c>
       <c r="BI85">
         <v>0.00133</v>
@@ -17017,10 +17017,10 @@
         <v>696</v>
       </c>
       <c r="AY86">
-        <v>0.01638584123563219</v>
+        <v>0.0163858261494253</v>
       </c>
       <c r="AZ86">
-        <v>0.02061852916992737</v>
+        <v>0.02061853510744255</v>
       </c>
       <c r="BA86">
         <v>2.65E-05</v>
@@ -17044,10 +17044,10 @@
         <v>0.4348628735632186</v>
       </c>
       <c r="BH86">
-        <v>0.3280845552147127</v>
+        <v>0.3280845552230453</v>
       </c>
       <c r="BI86">
-        <v>0.00134</v>
+        <v>0.00133</v>
       </c>
       <c r="BJ86">
         <v>0.1275</v>
@@ -17214,10 +17214,10 @@
         <v>696</v>
       </c>
       <c r="AY87">
-        <v>0.01644305244252875</v>
+        <v>0.01644319655172415</v>
       </c>
       <c r="AZ87">
-        <v>0.02072040139191067</v>
+        <v>0.0207203622103584</v>
       </c>
       <c r="BA87">
         <v>2.66E-05</v>
@@ -17238,10 +17238,10 @@
         <v>696</v>
       </c>
       <c r="BG87">
-        <v>0.4365630890804596</v>
+        <v>0.4365644827586206</v>
       </c>
       <c r="BH87">
-        <v>0.3297510226400678</v>
+        <v>0.3297530428700154</v>
       </c>
       <c r="BI87">
         <v>0.00134</v>
@@ -17411,10 +17411,10 @@
         <v>696</v>
       </c>
       <c r="AY88">
-        <v>0.01650356020114943</v>
+        <v>0.0165035742816092</v>
       </c>
       <c r="AZ88">
-        <v>0.02081787568993101</v>
+        <v>0.02081787082448342</v>
       </c>
       <c r="BA88">
         <v>2.67E-05</v>
@@ -17435,10 +17435,10 @@
         <v>696</v>
       </c>
       <c r="BG88">
-        <v>0.4382352155172415</v>
+        <v>0.4382366235632185</v>
       </c>
       <c r="BH88">
-        <v>0.3315188975413076</v>
+        <v>0.3315213670815274</v>
       </c>
       <c r="BI88">
         <v>0.00135</v>
@@ -17608,10 +17608,10 @@
         <v>696</v>
       </c>
       <c r="AY89">
-        <v>0.07520910919540245</v>
+        <v>0.07521140804597717</v>
       </c>
       <c r="AZ89">
-        <v>0.04746036818211916</v>
+        <v>0.0474615663976762</v>
       </c>
       <c r="BA89">
         <v>0.00278</v>
@@ -17620,7 +17620,7 @@
         <v>0.0404</v>
       </c>
       <c r="BC89">
-        <v>0.06445000000000001</v>
+        <v>0.0645</v>
       </c>
       <c r="BD89">
         <v>0.09925</v>
@@ -17757,10 +17757,10 @@
         <v>696</v>
       </c>
       <c r="AI90">
-        <v>203.2152298850575</v>
+        <v>203.2166666666666</v>
       </c>
       <c r="AJ90">
-        <v>99.83236523799204</v>
+        <v>99.83163428411319</v>
       </c>
       <c r="AK90">
         <v>95</v>
@@ -17769,7 +17769,7 @@
         <v>132</v>
       </c>
       <c r="AM90">
-        <v>151.5</v>
+        <v>152</v>
       </c>
       <c r="AN90">
         <v>265.75</v>
@@ -17805,10 +17805,10 @@
         <v>696</v>
       </c>
       <c r="AY90">
-        <v>0.04547499999999997</v>
+        <v>0.04547212643678158</v>
       </c>
       <c r="AZ90">
-        <v>0.02952147285811178</v>
+        <v>0.0295201162787691</v>
       </c>
       <c r="BA90">
         <v>0.0138</v>
@@ -17829,10 +17829,10 @@
         <v>696</v>
       </c>
       <c r="BG90">
-        <v>2.077265373563219</v>
+        <v>2.077230890804598</v>
       </c>
       <c r="BH90">
-        <v>1.503257578102641</v>
+        <v>1.503262481551397</v>
       </c>
       <c r="BI90">
         <v>0.06</v>
@@ -17882,10 +17882,10 @@
         <v>696</v>
       </c>
       <c r="K91">
-        <v>46.28505747126429</v>
+        <v>46.28520114942521</v>
       </c>
       <c r="L91">
-        <v>0.3415676886078863</v>
+        <v>0.3421000986060996</v>
       </c>
       <c r="M91">
         <v>45.7</v>
@@ -17906,16 +17906,16 @@
         <v>696</v>
       </c>
       <c r="S91">
-        <v>12.16261494252876</v>
+        <v>12.16385057471266</v>
       </c>
       <c r="T91">
-        <v>2.278283476277699</v>
+        <v>2.279125567663951</v>
       </c>
       <c r="U91">
         <v>8.279999999999999</v>
       </c>
       <c r="V91">
-        <v>9.657500000000001</v>
+        <v>9.65</v>
       </c>
       <c r="W91">
         <v>12.1</v>
@@ -17930,10 +17930,10 @@
         <v>696</v>
       </c>
       <c r="AA91">
-        <v>46.26221264367811</v>
+        <v>46.26206896551719</v>
       </c>
       <c r="AB91">
-        <v>0.3236398045094717</v>
+        <v>0.3237341050561121</v>
       </c>
       <c r="AC91">
         <v>45.7</v>
@@ -17954,10 +17954,10 @@
         <v>696</v>
       </c>
       <c r="AI91">
-        <v>203.3665229885057</v>
+        <v>203.3738505747127</v>
       </c>
       <c r="AJ91">
-        <v>99.87766581911963</v>
+        <v>99.88714195617624</v>
       </c>
       <c r="AK91">
         <v>95</v>
@@ -17978,10 +17978,10 @@
         <v>696</v>
       </c>
       <c r="AQ91">
-        <v>53.87527298850575</v>
+        <v>53.8754166666667</v>
       </c>
       <c r="AR91">
-        <v>38.0832702586639</v>
+        <v>38.0835918761066</v>
       </c>
       <c r="AS91">
         <v>2.32</v>
@@ -18002,13 +18002,13 @@
         <v>696</v>
       </c>
       <c r="AY91">
-        <v>0.03410419540229887</v>
+        <v>0.03410882183908047</v>
       </c>
       <c r="AZ91">
-        <v>0.03251362634429952</v>
+        <v>0.03250780558028966</v>
       </c>
       <c r="BA91">
-        <v>0.00629</v>
+        <v>0.0063</v>
       </c>
       <c r="BB91">
         <v>0.019075</v>
@@ -18026,16 +18026,16 @@
         <v>696</v>
       </c>
       <c r="BG91">
-        <v>1.336952011494252</v>
+        <v>1.337382758620689</v>
       </c>
       <c r="BH91">
-        <v>0.8232959105054155</v>
+        <v>0.8235360039856061</v>
       </c>
       <c r="BI91">
         <v>0.0287</v>
       </c>
       <c r="BJ91">
-        <v>0.71375</v>
+        <v>0.714</v>
       </c>
       <c r="BK91">
         <v>1.045</v>
@@ -18079,10 +18079,10 @@
         <v>696</v>
       </c>
       <c r="K92">
-        <v>46.69439655172394</v>
+        <v>46.69597701149409</v>
       </c>
       <c r="L92">
-        <v>0.2579056392936359</v>
+        <v>0.256171973576948</v>
       </c>
       <c r="M92">
         <v>46.3</v>
@@ -18103,16 +18103,16 @@
         <v>696</v>
       </c>
       <c r="S92">
-        <v>12.56958333333332</v>
+        <v>12.57520114942528</v>
       </c>
       <c r="T92">
-        <v>2.307694972289862</v>
+        <v>2.30857998393266</v>
       </c>
       <c r="U92">
-        <v>8.710000000000001</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="V92">
-        <v>9.955</v>
+        <v>9.987500000000001</v>
       </c>
       <c r="W92">
         <v>12.4</v>
@@ -18151,10 +18151,10 @@
         <v>696</v>
       </c>
       <c r="AI92">
-        <v>203.467959770115</v>
+        <v>203.4952586206897</v>
       </c>
       <c r="AJ92">
-        <v>99.93875430599654</v>
+        <v>99.92994779692226</v>
       </c>
       <c r="AK92">
         <v>95</v>
@@ -18175,10 +18175,10 @@
         <v>696</v>
       </c>
       <c r="AQ92">
-        <v>53.88653735632184</v>
+        <v>53.89386494252873</v>
       </c>
       <c r="AR92">
-        <v>38.08560458338629</v>
+        <v>38.09414747442602</v>
       </c>
       <c r="AS92">
         <v>2.32</v>
@@ -18187,7 +18187,7 @@
         <v>26.475</v>
       </c>
       <c r="AU92">
-        <v>45</v>
+        <v>45.05</v>
       </c>
       <c r="AV92">
         <v>77.5</v>
@@ -18199,10 +18199,10 @@
         <v>696</v>
       </c>
       <c r="AY92">
-        <v>0.02913987068965521</v>
+        <v>0.02913750000000004</v>
       </c>
       <c r="AZ92">
-        <v>0.03405635399336495</v>
+        <v>0.03403730816081866</v>
       </c>
       <c r="BA92">
         <v>0.00282</v>
@@ -18211,31 +18211,31 @@
         <v>0.0136</v>
       </c>
       <c r="BC92">
-        <v>0.0188</v>
+        <v>0.01875</v>
       </c>
       <c r="BD92">
         <v>0.0289</v>
       </c>
       <c r="BE92">
-        <v>0.243</v>
+        <v>0.242</v>
       </c>
       <c r="BF92">
         <v>696</v>
       </c>
       <c r="BG92">
-        <v>1.027776436781608</v>
+        <v>1.027855459770114</v>
       </c>
       <c r="BH92">
-        <v>0.5962320022031444</v>
+        <v>0.5963219736983298</v>
       </c>
       <c r="BI92">
         <v>0.0148</v>
       </c>
       <c r="BJ92">
-        <v>0.5845</v>
+        <v>0.58475</v>
       </c>
       <c r="BK92">
-        <v>0.84</v>
+        <v>0.841</v>
       </c>
       <c r="BL92">
         <v>1.5825</v>
@@ -18276,10 +18276,10 @@
         <v>696</v>
       </c>
       <c r="K93">
-        <v>46.82729885057473</v>
+        <v>46.83247126436787</v>
       </c>
       <c r="L93">
-        <v>0.2330323157849908</v>
+        <v>0.2334790038017134</v>
       </c>
       <c r="M93">
         <v>46.6</v>
@@ -18300,13 +18300,13 @@
         <v>696</v>
       </c>
       <c r="S93">
-        <v>12.70477011494254</v>
+        <v>12.71102011494255</v>
       </c>
       <c r="T93">
-        <v>2.321622653584766</v>
+        <v>2.321030711167938</v>
       </c>
       <c r="U93">
-        <v>8.869999999999999</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="V93">
         <v>10.1</v>
@@ -18324,10 +18324,10 @@
         <v>696</v>
       </c>
       <c r="AA93">
-        <v>46.79885057471248</v>
+        <v>46.79870689655156</v>
       </c>
       <c r="AB93">
-        <v>0.232407111357938</v>
+        <v>0.2324992030833294</v>
       </c>
       <c r="AC93">
         <v>46.4</v>
@@ -18348,10 +18348,10 @@
         <v>696</v>
       </c>
       <c r="AI93">
-        <v>203.2554597701149</v>
+        <v>203.3043103448276</v>
       </c>
       <c r="AJ93">
-        <v>99.83549864798542</v>
+        <v>99.84704912416932</v>
       </c>
       <c r="AK93">
         <v>95</v>
@@ -18366,16 +18366,16 @@
         <v>265.75</v>
       </c>
       <c r="AO93">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AP93">
         <v>696</v>
       </c>
       <c r="AQ93">
-        <v>53.85251436781609</v>
+        <v>53.85887931034483</v>
       </c>
       <c r="AR93">
-        <v>38.06274528786268</v>
+        <v>38.06304228638021</v>
       </c>
       <c r="AS93">
         <v>2.32</v>
@@ -18396,10 +18396,10 @@
         <v>696</v>
       </c>
       <c r="AY93">
-        <v>0.0269182183908046</v>
+        <v>0.0269201867816092</v>
       </c>
       <c r="AZ93">
-        <v>0.03456665898058844</v>
+        <v>0.03456742076346517</v>
       </c>
       <c r="BA93">
         <v>0.00127</v>
@@ -18420,10 +18420,10 @@
         <v>696</v>
       </c>
       <c r="BG93">
-        <v>0.8948400287356313</v>
+        <v>0.8949743678160913</v>
       </c>
       <c r="BH93">
-        <v>0.5177669440829871</v>
+        <v>0.5178346492453209</v>
       </c>
       <c r="BI93">
         <v>0.00878</v>
@@ -18473,10 +18473,10 @@
         <v>696</v>
       </c>
       <c r="K94">
-        <v>46.8992816091956</v>
+        <v>46.87959770114957</v>
       </c>
       <c r="L94">
-        <v>0.2250807714481176</v>
+        <v>0.2239934716299491</v>
       </c>
       <c r="M94">
         <v>46.6</v>
@@ -18497,16 +18497,16 @@
         <v>696</v>
       </c>
       <c r="S94">
-        <v>12.77433908045979</v>
+        <v>12.75363505747129</v>
       </c>
       <c r="T94">
-        <v>2.325335930238063</v>
+        <v>2.323279158413873</v>
       </c>
       <c r="U94">
-        <v>8.94</v>
+        <v>8.92</v>
       </c>
       <c r="V94">
-        <v>10.2</v>
+        <v>10.175</v>
       </c>
       <c r="W94">
         <v>12.6</v>
@@ -18515,7 +18515,7 @@
         <v>14.6</v>
       </c>
       <c r="Y94">
-        <v>17.2</v>
+        <v>17.1</v>
       </c>
       <c r="Z94">
         <v>696</v>
@@ -18545,13 +18545,13 @@
         <v>696</v>
       </c>
       <c r="AI94">
-        <v>203.2308908045977</v>
+        <v>203.1455459770115</v>
       </c>
       <c r="AJ94">
-        <v>99.8340016893345</v>
+        <v>99.82538615572861</v>
       </c>
       <c r="AK94">
-        <v>95</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="AL94">
         <v>132</v>
@@ -18569,19 +18569,19 @@
         <v>696</v>
       </c>
       <c r="AQ94">
-        <v>53.85071839080461</v>
+        <v>53.83202586206892</v>
       </c>
       <c r="AR94">
-        <v>38.06296905518699</v>
+        <v>38.0555312657537</v>
       </c>
       <c r="AS94">
         <v>2.32</v>
       </c>
       <c r="AT94">
-        <v>26.475</v>
+        <v>26.375</v>
       </c>
       <c r="AU94">
-        <v>45</v>
+        <v>44.95</v>
       </c>
       <c r="AV94">
         <v>77.40000000000001</v>
@@ -18593,13 +18593,13 @@
         <v>696</v>
       </c>
       <c r="AY94">
-        <v>0.02591210344827589</v>
+        <v>0.02589958477011496</v>
       </c>
       <c r="AZ94">
-        <v>0.03471056476343303</v>
+        <v>0.0346884954276563</v>
       </c>
       <c r="BA94">
-        <v>0.000564</v>
+        <v>0.000561</v>
       </c>
       <c r="BB94">
         <v>0.009965</v>
@@ -18617,16 +18617,16 @@
         <v>696</v>
       </c>
       <c r="BG94">
-        <v>0.8370005459770115</v>
+        <v>0.836671508620689</v>
       </c>
       <c r="BH94">
-        <v>0.4899881407362301</v>
+        <v>0.4898299443709711</v>
       </c>
       <c r="BI94">
-        <v>0.00614</v>
+        <v>0.00613</v>
       </c>
       <c r="BJ94">
-        <v>0.46575</v>
+        <v>0.465</v>
       </c>
       <c r="BK94">
         <v>0.7415</v>
@@ -18670,16 +18670,16 @@
         <v>696</v>
       </c>
       <c r="K95">
-        <v>46.93318965517247</v>
+        <v>46.93936781609199</v>
       </c>
       <c r="L95">
-        <v>0.2269704096503757</v>
+        <v>0.2264563478163125</v>
       </c>
       <c r="M95">
         <v>46.7</v>
       </c>
       <c r="N95">
-        <v>46.7</v>
+        <v>46.8</v>
       </c>
       <c r="O95">
         <v>46.9</v>
@@ -18694,13 +18694,13 @@
         <v>696</v>
       </c>
       <c r="S95">
-        <v>12.81295977011496</v>
+        <v>12.81797413793106</v>
       </c>
       <c r="T95">
-        <v>2.33119282860398</v>
+        <v>2.330220430964453</v>
       </c>
       <c r="U95">
-        <v>8.970000000000001</v>
+        <v>8.98</v>
       </c>
       <c r="V95">
         <v>10.2</v>
@@ -18742,19 +18742,19 @@
         <v>696</v>
       </c>
       <c r="AI95">
-        <v>203.2596264367816</v>
+        <v>203.2988505747126</v>
       </c>
       <c r="AJ95">
-        <v>99.85746399659607</v>
+        <v>99.8597855778559</v>
       </c>
       <c r="AK95">
-        <v>94.90000000000001</v>
+        <v>95</v>
       </c>
       <c r="AL95">
         <v>132</v>
       </c>
       <c r="AM95">
-        <v>152</v>
+        <v>152.5</v>
       </c>
       <c r="AN95">
         <v>266.5</v>
@@ -18766,10 +18766,10 @@
         <v>696</v>
       </c>
       <c r="AQ95">
-        <v>53.85839080459773</v>
+        <v>53.86112068965518</v>
       </c>
       <c r="AR95">
-        <v>38.07165805109209</v>
+        <v>38.0673143945967</v>
       </c>
       <c r="AS95">
         <v>2.32</v>
@@ -18781,7 +18781,7 @@
         <v>45</v>
       </c>
       <c r="AV95">
-        <v>77.47499999999999</v>
+        <v>77.42500000000001</v>
       </c>
       <c r="AW95">
         <v>171</v>
@@ -18790,13 +18790,13 @@
         <v>696</v>
       </c>
       <c r="AY95">
-        <v>0.02544747413793102</v>
+        <v>0.02544093534482756</v>
       </c>
       <c r="AZ95">
-        <v>0.03465254381812331</v>
+        <v>0.03465590711029709</v>
       </c>
       <c r="BA95">
-        <v>0.000276</v>
+        <v>0.000278</v>
       </c>
       <c r="BB95">
         <v>0.009429999999999999</v>
@@ -18805,7 +18805,7 @@
         <v>0.0153</v>
       </c>
       <c r="BD95">
-        <v>0.024625</v>
+        <v>0.0246</v>
       </c>
       <c r="BE95">
         <v>0.241</v>
@@ -18814,10 +18814,10 @@
         <v>696</v>
       </c>
       <c r="BG95">
-        <v>0.8125459482758622</v>
+        <v>0.8123016666666669</v>
       </c>
       <c r="BH95">
-        <v>0.4807149054759229</v>
+        <v>0.4805100914588214</v>
       </c>
       <c r="BI95">
         <v>0.00506</v>
@@ -18826,7 +18826,7 @@
         <v>0.451</v>
       </c>
       <c r="BK95">
-        <v>0.73</v>
+        <v>0.7295</v>
       </c>
       <c r="BL95">
         <v>1.25</v>
@@ -18867,10 +18867,10 @@
         <v>696</v>
       </c>
       <c r="K96">
-        <v>46.92557471264377</v>
+        <v>46.92471264367824</v>
       </c>
       <c r="L96">
-        <v>0.2263401976173713</v>
+        <v>0.2251616286895959</v>
       </c>
       <c r="M96">
         <v>46.7</v>
@@ -18879,7 +18879,7 @@
         <v>46.7</v>
       </c>
       <c r="O96">
-        <v>46.84999999999999</v>
+        <v>46.8</v>
       </c>
       <c r="P96">
         <v>47.1</v>
@@ -18891,13 +18891,13 @@
         <v>696</v>
       </c>
       <c r="S96">
-        <v>12.80739942528737</v>
+        <v>12.80510057471267</v>
       </c>
       <c r="T96">
-        <v>2.333925397191253</v>
+        <v>2.332675369261523</v>
       </c>
       <c r="U96">
-        <v>8.970000000000001</v>
+        <v>8.94</v>
       </c>
       <c r="V96">
         <v>10.2</v>
@@ -18939,10 +18939,10 @@
         <v>696</v>
       </c>
       <c r="AI96">
-        <v>203.1655172413793</v>
+        <v>203.1584770114942</v>
       </c>
       <c r="AJ96">
-        <v>99.83464380761073</v>
+        <v>99.8234421941566</v>
       </c>
       <c r="AK96">
         <v>94.90000000000001</v>
@@ -18963,19 +18963,19 @@
         <v>696</v>
       </c>
       <c r="AQ96">
-        <v>53.8390517241379</v>
+        <v>53.8366235632184</v>
       </c>
       <c r="AR96">
-        <v>38.06285610196703</v>
+        <v>38.05884663066723</v>
       </c>
       <c r="AS96">
         <v>2.32</v>
       </c>
       <c r="AT96">
-        <v>26.45</v>
+        <v>26.375</v>
       </c>
       <c r="AU96">
-        <v>44.95</v>
+        <v>45</v>
       </c>
       <c r="AV96">
         <v>77.40000000000001</v>
@@ -18987,13 +18987,13 @@
         <v>696</v>
       </c>
       <c r="AY96">
-        <v>0.02521816235632182</v>
+        <v>0.02521776005747126</v>
       </c>
       <c r="AZ96">
-        <v>0.03450399011405593</v>
+        <v>0.03450270564848629</v>
       </c>
       <c r="BA96">
-        <v>0.000171</v>
+        <v>0.000172</v>
       </c>
       <c r="BB96">
         <v>0.0092675</v>
@@ -19005,16 +19005,16 @@
         <v>0.02445</v>
       </c>
       <c r="BE96">
-        <v>0.241</v>
+        <v>0.24</v>
       </c>
       <c r="BF96">
         <v>696</v>
       </c>
       <c r="BG96">
-        <v>0.8029306609195407</v>
+        <v>0.8028865804597708</v>
       </c>
       <c r="BH96">
-        <v>0.478368066712152</v>
+        <v>0.4783048199100159</v>
       </c>
       <c r="BI96">
         <v>0.00465</v>
@@ -19023,13 +19023,13 @@
         <v>0.443</v>
       </c>
       <c r="BK96">
-        <v>0.725</v>
+        <v>0.7244999999999999</v>
       </c>
       <c r="BL96">
         <v>1.22</v>
       </c>
       <c r="BM96">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="97" spans="1:65">
@@ -19064,10 +19064,10 @@
         <v>696</v>
       </c>
       <c r="K97">
-        <v>46.94181034482763</v>
+        <v>46.94367816091957</v>
       </c>
       <c r="L97">
-        <v>0.2241958257767256</v>
+        <v>0.2237424775731462</v>
       </c>
       <c r="M97">
         <v>46.7</v>
@@ -19088,10 +19088,10 @@
         <v>696</v>
       </c>
       <c r="S97">
-        <v>12.82114942528739</v>
+        <v>12.82278735632187</v>
       </c>
       <c r="T97">
-        <v>2.33109591680038</v>
+        <v>2.331113913042628</v>
       </c>
       <c r="U97">
         <v>8.98</v>
@@ -19112,10 +19112,10 @@
         <v>696</v>
       </c>
       <c r="AA97">
-        <v>46.92241379310357</v>
+        <v>46.92255747126449</v>
       </c>
       <c r="AB97">
-        <v>0.2222525131647275</v>
+        <v>0.2223350498462683</v>
       </c>
       <c r="AC97">
         <v>46.6</v>
@@ -19136,10 +19136,10 @@
         <v>696</v>
       </c>
       <c r="AI97">
-        <v>203.1889367816092</v>
+        <v>203.1948275862069</v>
       </c>
       <c r="AJ97">
-        <v>99.83242466313105</v>
+        <v>99.83149847776293</v>
       </c>
       <c r="AK97">
         <v>95</v>
@@ -19160,10 +19160,10 @@
         <v>696</v>
       </c>
       <c r="AQ97">
-        <v>53.84497126436779</v>
+        <v>53.84504310344827</v>
       </c>
       <c r="AR97">
-        <v>38.0623513981468</v>
+        <v>38.06268854506624</v>
       </c>
       <c r="AS97">
         <v>2.32</v>
@@ -19172,7 +19172,7 @@
         <v>26.45</v>
       </c>
       <c r="AU97">
-        <v>45</v>
+        <v>44.95</v>
       </c>
       <c r="AV97">
         <v>77.40000000000001</v>
@@ -19184,13 +19184,13 @@
         <v>696</v>
       </c>
       <c r="AY97">
-        <v>0.02509879310344824</v>
+        <v>0.02509839080459767</v>
       </c>
       <c r="AZ97">
-        <v>0.03439348250606879</v>
+        <v>0.03439298408854163</v>
       </c>
       <c r="BA97">
-        <v>0.000124</v>
+        <v>0.000126</v>
       </c>
       <c r="BB97">
         <v>0.0092125</v>
@@ -19208,16 +19208,16 @@
         <v>696</v>
       </c>
       <c r="BG97">
-        <v>0.798944913793104</v>
+        <v>0.7989078160919536</v>
       </c>
       <c r="BH97">
-        <v>0.4784227136772405</v>
+        <v>0.4783596495054069</v>
       </c>
       <c r="BI97">
-        <v>0.00425</v>
+        <v>0.00426</v>
       </c>
       <c r="BJ97">
-        <v>0.43775</v>
+        <v>0.438</v>
       </c>
       <c r="BK97">
         <v>0.717</v>
@@ -19261,10 +19261,10 @@
         <v>696</v>
       </c>
       <c r="K98">
-        <v>46.94885057471262</v>
+        <v>46.95344827586204</v>
       </c>
       <c r="L98">
-        <v>0.2221512883287951</v>
+        <v>0.2221274640165064</v>
       </c>
       <c r="M98">
         <v>46.7</v>
@@ -19285,13 +19285,13 @@
         <v>696</v>
       </c>
       <c r="S98">
-        <v>12.82706896551727</v>
+        <v>12.83139367816095</v>
       </c>
       <c r="T98">
-        <v>2.330372070422196</v>
+        <v>2.330203359184393</v>
       </c>
       <c r="U98">
-        <v>8.99</v>
+        <v>9</v>
       </c>
       <c r="V98">
         <v>10.275</v>
@@ -19333,10 +19333,10 @@
         <v>696</v>
       </c>
       <c r="AI98">
-        <v>203.1992816091954</v>
+        <v>203.2181034482759</v>
       </c>
       <c r="AJ98">
-        <v>99.82829034617394</v>
+        <v>99.82970702955382</v>
       </c>
       <c r="AK98">
         <v>95</v>
@@ -19357,10 +19357,10 @@
         <v>696</v>
       </c>
       <c r="AQ98">
-        <v>53.84548850574713</v>
+        <v>53.84747126436781</v>
       </c>
       <c r="AR98">
-        <v>38.06255423091257</v>
+        <v>38.06295847273321</v>
       </c>
       <c r="AS98">
         <v>2.32</v>
@@ -19369,10 +19369,10 @@
         <v>26.45</v>
       </c>
       <c r="AU98">
-        <v>45</v>
+        <v>44.95</v>
       </c>
       <c r="AV98">
-        <v>77.40000000000001</v>
+        <v>77.42500000000001</v>
       </c>
       <c r="AW98">
         <v>170</v>
@@ -19381,10 +19381,10 @@
         <v>696</v>
       </c>
       <c r="AY98">
-        <v>0.02499846551724138</v>
+        <v>0.0249987198275862</v>
       </c>
       <c r="AZ98">
-        <v>0.03422747321462399</v>
+        <v>0.03422737234509023</v>
       </c>
       <c r="BA98">
         <v>0.000103</v>
@@ -19405,10 +19405,10 @@
         <v>696</v>
       </c>
       <c r="BG98">
-        <v>0.7965147557471268</v>
+        <v>0.7965170402298856</v>
       </c>
       <c r="BH98">
-        <v>0.4787437888314468</v>
+        <v>0.4787422429981918</v>
       </c>
       <c r="BI98">
         <v>0.00405</v>
@@ -19458,10 +19458,10 @@
         <v>696</v>
       </c>
       <c r="K99">
-        <v>46.95431034482756</v>
+        <v>46.95488505747124</v>
       </c>
       <c r="L99">
-        <v>0.2227592466425858</v>
+        <v>0.2221004724504888</v>
       </c>
       <c r="M99">
         <v>46.7</v>
@@ -19482,10 +19482,10 @@
         <v>696</v>
       </c>
       <c r="S99">
-        <v>12.83235632183911</v>
+        <v>12.833275862069</v>
       </c>
       <c r="T99">
-        <v>2.330079053721798</v>
+        <v>2.329305924051067</v>
       </c>
       <c r="U99">
         <v>9</v>
@@ -19533,7 +19533,7 @@
         <v>203.2152298850575</v>
       </c>
       <c r="AJ99">
-        <v>99.83116898088983</v>
+        <v>99.82948266641222</v>
       </c>
       <c r="AK99">
         <v>95</v>
@@ -19554,10 +19554,10 @@
         <v>696</v>
       </c>
       <c r="AQ99">
-        <v>53.84732758620689</v>
+        <v>53.84790229885057</v>
       </c>
       <c r="AR99">
-        <v>38.06319434549839</v>
+        <v>38.06303372450419</v>
       </c>
       <c r="AS99">
         <v>2.32</v>
@@ -19578,13 +19578,13 @@
         <v>696</v>
       </c>
       <c r="AY99">
-        <v>0.02492255890804599</v>
+        <v>0.02492116307471266</v>
       </c>
       <c r="AZ99">
-        <v>0.03411399123933571</v>
+        <v>0.03410501615162272</v>
       </c>
       <c r="BA99">
-        <v>9.14E-05</v>
+        <v>9.060000000000001E-05</v>
       </c>
       <c r="BB99">
         <v>0.009165</v>
@@ -19602,13 +19602,13 @@
         <v>696</v>
       </c>
       <c r="BG99">
-        <v>0.7949773419540226</v>
+        <v>0.7949782758620687</v>
       </c>
       <c r="BH99">
-        <v>0.4794515884455873</v>
+        <v>0.4794531669124178</v>
       </c>
       <c r="BI99">
-        <v>0.00394</v>
+        <v>0.00393</v>
       </c>
       <c r="BJ99">
         <v>0.43175</v>
@@ -19655,10 +19655,10 @@
         <v>696</v>
       </c>
       <c r="K100">
-        <v>46.95718390804596</v>
+        <v>46.95531609195399</v>
       </c>
       <c r="L100">
-        <v>0.2224263857198992</v>
+        <v>0.2228020719191536</v>
       </c>
       <c r="M100">
         <v>46.7</v>
@@ -19679,10 +19679,10 @@
         <v>696</v>
       </c>
       <c r="S100">
-        <v>12.83442528735635</v>
+        <v>12.83316091954026</v>
       </c>
       <c r="T100">
-        <v>2.328563817764673</v>
+        <v>2.329418689944009</v>
       </c>
       <c r="U100">
         <v>9</v>
@@ -19727,10 +19727,10 @@
         <v>696</v>
       </c>
       <c r="AI100">
-        <v>203.219540229885</v>
+        <v>203.2152298850575</v>
       </c>
       <c r="AJ100">
-        <v>99.83096500818053</v>
+        <v>99.83116898088983</v>
       </c>
       <c r="AK100">
         <v>95</v>
@@ -19739,7 +19739,7 @@
         <v>132</v>
       </c>
       <c r="AM100">
-        <v>152</v>
+        <v>151.5</v>
       </c>
       <c r="AN100">
         <v>265.75</v>
@@ -19751,10 +19751,10 @@
         <v>696</v>
       </c>
       <c r="AQ100">
-        <v>53.84774425287356</v>
+        <v>53.84704022988506</v>
       </c>
       <c r="AR100">
-        <v>38.06279780351022</v>
+        <v>38.06307411499063</v>
       </c>
       <c r="AS100">
         <v>2.32</v>
@@ -19775,13 +19775,13 @@
         <v>696</v>
       </c>
       <c r="AY100">
-        <v>0.0248635570402299</v>
+        <v>0.02486338175287358</v>
       </c>
       <c r="AZ100">
-        <v>0.03397760268178923</v>
+        <v>0.03397760260409762</v>
       </c>
       <c r="BA100">
-        <v>8.41E-05</v>
+        <v>8.4E-05</v>
       </c>
       <c r="BB100">
         <v>0.009157499999999999</v>
@@ -19799,13 +19799,13 @@
         <v>696</v>
       </c>
       <c r="BG100">
-        <v>0.7939983189655176</v>
+        <v>0.7939905172413798</v>
       </c>
       <c r="BH100">
-        <v>0.4805947765020496</v>
+        <v>0.4806003951363329</v>
       </c>
       <c r="BI100">
-        <v>0.00387</v>
+        <v>0.00386</v>
       </c>
       <c r="BJ100">
         <v>0.429</v>
@@ -19852,10 +19852,10 @@
         <v>696</v>
       </c>
       <c r="K101">
-        <v>46.95359195402296</v>
+        <v>46.95517241379307</v>
       </c>
       <c r="L101">
-        <v>0.2221251838213913</v>
+        <v>0.222223490169761</v>
       </c>
       <c r="M101">
         <v>46.7</v>
@@ -19876,10 +19876,10 @@
         <v>696</v>
       </c>
       <c r="S101">
-        <v>12.83147988505751</v>
+        <v>12.83320402298854</v>
       </c>
       <c r="T101">
-        <v>2.329867806086729</v>
+        <v>2.329323165667074</v>
       </c>
       <c r="U101">
         <v>9</v>
@@ -19924,10 +19924,10 @@
         <v>696</v>
       </c>
       <c r="AI101">
-        <v>203.1991379310344</v>
+        <v>203.2123563218391</v>
       </c>
       <c r="AJ101">
-        <v>99.82793714800978</v>
+        <v>99.82800427249705</v>
       </c>
       <c r="AK101">
         <v>95</v>
@@ -19948,10 +19948,10 @@
         <v>696</v>
       </c>
       <c r="AQ101">
-        <v>53.84521551724138</v>
+        <v>53.84728448275863</v>
       </c>
       <c r="AR101">
-        <v>38.0621730112979</v>
+        <v>38.06279005805861</v>
       </c>
       <c r="AS101">
         <v>2.32</v>
@@ -19972,13 +19972,13 @@
         <v>696</v>
       </c>
       <c r="AY101">
-        <v>0.02480440732758619</v>
+        <v>0.02480471106321836</v>
       </c>
       <c r="AZ101">
-        <v>0.0338750766958168</v>
+        <v>0.0338750281356412</v>
       </c>
       <c r="BA101">
-        <v>7.96E-05</v>
+        <v>7.93E-05</v>
       </c>
       <c r="BB101">
         <v>0.009152499999999999</v>
@@ -19996,13 +19996,13 @@
         <v>696</v>
       </c>
       <c r="BG101">
-        <v>0.793433103448276</v>
+        <v>0.7934696264367816</v>
       </c>
       <c r="BH101">
-        <v>0.4821722826379713</v>
+        <v>0.4821879248605247</v>
       </c>
       <c r="BI101">
-        <v>0.00381</v>
+        <v>0.0038</v>
       </c>
       <c r="BJ101">
         <v>0.427</v>
@@ -20049,10 +20049,10 @@
         <v>696</v>
       </c>
       <c r="K102">
-        <v>46.9545977011494</v>
+        <v>46.95373563218388</v>
       </c>
       <c r="L102">
-        <v>0.2221066156469275</v>
+        <v>0.2220580239043829</v>
       </c>
       <c r="M102">
         <v>46.7</v>
@@ -20073,10 +20073,10 @@
         <v>696</v>
       </c>
       <c r="S102">
-        <v>12.8329166666667</v>
+        <v>12.83211206896555</v>
       </c>
       <c r="T102">
-        <v>2.329772020577489</v>
+        <v>2.330252709690433</v>
       </c>
       <c r="U102">
         <v>9</v>
@@ -20121,10 +20121,10 @@
         <v>696</v>
       </c>
       <c r="AI102">
-        <v>203.2123563218391</v>
+        <v>203.2080459770115</v>
       </c>
       <c r="AJ102">
-        <v>99.83154987627285</v>
+        <v>99.82881329529107</v>
       </c>
       <c r="AK102">
         <v>95</v>
@@ -20145,10 +20145,10 @@
         <v>696</v>
       </c>
       <c r="AQ102">
-        <v>53.84701149425287</v>
+        <v>53.84612068965517</v>
       </c>
       <c r="AR102">
-        <v>38.06278789609201</v>
+        <v>38.06270487418583</v>
       </c>
       <c r="AS102">
         <v>2.32</v>
@@ -20160,7 +20160,7 @@
         <v>44.95</v>
       </c>
       <c r="AV102">
-        <v>77.42500000000001</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="AW102">
         <v>170</v>
@@ -20169,13 +20169,13 @@
         <v>696</v>
       </c>
       <c r="AY102">
-        <v>0.0247499260057471</v>
+        <v>0.02474989727011492</v>
       </c>
       <c r="AZ102">
-        <v>0.03374129406545202</v>
+        <v>0.03374161241594045</v>
       </c>
       <c r="BA102">
-        <v>7.720000000000001E-05</v>
+        <v>7.71E-05</v>
       </c>
       <c r="BB102">
         <v>0.009149999999999998</v>
@@ -20193,10 +20193,10 @@
         <v>696</v>
       </c>
       <c r="BG102">
-        <v>0.79332540229885</v>
+        <v>0.7933264798850568</v>
       </c>
       <c r="BH102">
-        <v>0.4841441851535218</v>
+        <v>0.484144587445943</v>
       </c>
       <c r="BI102">
         <v>0.00372</v>
@@ -20366,10 +20366,10 @@
         <v>696</v>
       </c>
       <c r="AY103">
-        <v>0.02469971738505745</v>
+        <v>0.02469971724137929</v>
       </c>
       <c r="AZ103">
-        <v>0.03363414932707227</v>
+        <v>0.03363414943239075</v>
       </c>
       <c r="BA103">
         <v>7.57E-05</v>
@@ -20390,10 +20390,10 @@
         <v>696</v>
       </c>
       <c r="BG103">
-        <v>0.7931386637931029</v>
+        <v>0.7931386350574706</v>
       </c>
       <c r="BH103">
-        <v>0.4858955729749231</v>
+        <v>0.4858956196755234</v>
       </c>
       <c r="BI103">
         <v>0.00366</v>
@@ -20563,10 +20563,10 @@
         <v>696</v>
       </c>
       <c r="AY104">
-        <v>0.024659920545977</v>
+        <v>0.02465992040229883</v>
       </c>
       <c r="AZ104">
-        <v>0.03355260568561613</v>
+        <v>0.03355260579094189</v>
       </c>
       <c r="BA104">
         <v>7.49E-05</v>
@@ -20760,10 +20760,10 @@
         <v>696</v>
       </c>
       <c r="AY105">
-        <v>0.02460924454022987</v>
+        <v>0.0246092587643678</v>
       </c>
       <c r="AZ105">
-        <v>0.0334178692522334</v>
+        <v>0.03341786231196879</v>
       </c>
       <c r="BA105">
         <v>7.43E-05</v>
@@ -20784,13 +20784,13 @@
         <v>696</v>
       </c>
       <c r="BG105">
-        <v>0.7928636637931044</v>
+        <v>0.7928636063218399</v>
       </c>
       <c r="BH105">
-        <v>0.4888761093464506</v>
+        <v>0.4888762021776155</v>
       </c>
       <c r="BI105">
-        <v>0.0036</v>
+        <v>0.00359</v>
       </c>
       <c r="BJ105">
         <v>0.421</v>
@@ -20981,10 +20981,10 @@
         <v>696</v>
       </c>
       <c r="BG106">
-        <v>0.7924499137931036</v>
+        <v>0.7924498994252873</v>
       </c>
       <c r="BH106">
-        <v>0.4899018861945431</v>
+        <v>0.4899019093442341</v>
       </c>
       <c r="BI106">
         <v>0.00359</v>
@@ -21154,13 +21154,13 @@
         <v>696</v>
       </c>
       <c r="AY107">
-        <v>0.02454151422413791</v>
+        <v>0.02454165560344826</v>
       </c>
       <c r="AZ107">
-        <v>0.03329446084075446</v>
+        <v>0.03329445911022105</v>
       </c>
       <c r="BA107">
-        <v>7.3E-05</v>
+        <v>7.279999999999999E-05</v>
       </c>
       <c r="BB107">
         <v>0.0090125</v>
@@ -21178,13 +21178,13 @@
         <v>696</v>
       </c>
       <c r="BG107">
-        <v>0.7925194827586221</v>
+        <v>0.7925179597701162</v>
       </c>
       <c r="BH107">
-        <v>0.4916596113069726</v>
+        <v>0.4916607886772522</v>
       </c>
       <c r="BI107">
-        <v>0.00354</v>
+        <v>0.00353</v>
       </c>
       <c r="BJ107">
         <v>0.417</v>
@@ -21351,13 +21351,13 @@
         <v>696</v>
       </c>
       <c r="AY108">
-        <v>0.02450696681034482</v>
+        <v>0.02450696609195402</v>
       </c>
       <c r="AZ108">
-        <v>0.03321133621599889</v>
+        <v>0.03321133674511996</v>
       </c>
       <c r="BA108">
-        <v>7.160000000000001E-05</v>
+        <v>7.15E-05</v>
       </c>
       <c r="BB108">
         <v>0.0089925</v>
@@ -21375,10 +21375,10 @@
         <v>696</v>
       </c>
       <c r="BG108">
-        <v>0.7925966666666674</v>
+        <v>0.792596623563219</v>
       </c>
       <c r="BH108">
-        <v>0.4933119575720309</v>
+        <v>0.4933120265325758</v>
       </c>
       <c r="BI108">
         <v>0.00348</v>
@@ -21548,10 +21548,10 @@
         <v>696</v>
       </c>
       <c r="AY109">
-        <v>0.02446567327586211</v>
+        <v>0.02446567284482763</v>
       </c>
       <c r="AZ109">
-        <v>0.03309783062056745</v>
+        <v>0.03309783093863509</v>
       </c>
       <c r="BA109">
         <v>7.03E-05</v>
@@ -21572,10 +21572,10 @@
         <v>696</v>
       </c>
       <c r="BG109">
-        <v>0.7926625143678162</v>
+        <v>0.792676853448276</v>
       </c>
       <c r="BH109">
-        <v>0.4950038524351217</v>
+        <v>0.4950155928528868</v>
       </c>
       <c r="BI109">
         <v>0.00343</v>
@@ -21748,7 +21748,7 @@
         <v>0.02443822887931035</v>
       </c>
       <c r="AZ110">
-        <v>0.03303287768433552</v>
+        <v>0.03303287768423228</v>
       </c>
       <c r="BA110">
         <v>7.03E-05</v>
@@ -21769,10 +21769,10 @@
         <v>696</v>
       </c>
       <c r="BG110">
-        <v>0.7927912068965529</v>
+        <v>0.7927926580459781</v>
       </c>
       <c r="BH110">
-        <v>0.4965616015200456</v>
+        <v>0.4965610736143538</v>
       </c>
       <c r="BI110">
         <v>0.00342</v>
@@ -21942,10 +21942,10 @@
         <v>696</v>
       </c>
       <c r="AY111">
-        <v>0.02441106767241382</v>
+        <v>0.02441106321839083</v>
       </c>
       <c r="AZ111">
-        <v>0.0329703058906534</v>
+        <v>0.03297030916376364</v>
       </c>
       <c r="BA111">
         <v>7.050000000000001E-05</v>
@@ -21966,13 +21966,13 @@
         <v>696</v>
       </c>
       <c r="BG111">
-        <v>0.7930560919540239</v>
+        <v>0.7930560632183917</v>
       </c>
       <c r="BH111">
-        <v>0.4981540659487301</v>
+        <v>0.498154111515867</v>
       </c>
       <c r="BI111">
-        <v>0.00343</v>
+        <v>0.00342</v>
       </c>
       <c r="BJ111">
         <v>0.411</v>
@@ -22043,10 +22043,10 @@
         <v>696</v>
       </c>
       <c r="S112">
-        <v>12.83466954022991</v>
+        <v>12.83465517241382</v>
       </c>
       <c r="T112">
-        <v>2.328605450452398</v>
+        <v>2.328628125242641</v>
       </c>
       <c r="U112">
         <v>9</v>
@@ -22139,10 +22139,10 @@
         <v>696</v>
       </c>
       <c r="AY112">
-        <v>0.02438666422413796</v>
+        <v>0.02438680775862072</v>
       </c>
       <c r="AZ112">
-        <v>0.03293076150327504</v>
+        <v>0.03293086063220479</v>
       </c>
       <c r="BA112">
         <v>7.07E-05</v>
@@ -22163,10 +22163,10 @@
         <v>696</v>
       </c>
       <c r="BG112">
-        <v>0.7929673706896554</v>
+        <v>0.7929673850574714</v>
       </c>
       <c r="BH112">
-        <v>0.4992515682376499</v>
+        <v>0.4992515455016778</v>
       </c>
       <c r="BI112">
         <v>0.00343</v>
